--- a/SudokuZaleznosci/bin/Debug/Iteracje/sudoku.xlsx
+++ b/SudokuZaleznosci/bin/Debug/Iteracje/sudoku.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>2 &amp; 17</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>iteracja 1</t>
+  </si>
+  <si>
+    <t>2 &amp; 53</t>
+  </si>
+  <si>
+    <t>10 &amp; 20</t>
+  </si>
+  <si>
+    <t>9 &amp; 35</t>
+  </si>
+  <si>
+    <t>ilosc wystapien</t>
+  </si>
+  <si>
+    <t>średnia</t>
   </si>
 </sst>
 </file>
@@ -244,9 +259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$A$2:$A$49</c:f>
+              <c:f>Arkusz1!$A$2:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1 &amp; 17</c:v>
                 </c:pt>
@@ -254,141 +269,150 @@
                   <c:v>2 &amp; 17</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3 &amp; 20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3 &amp; 35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>8 &amp; 20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>8 &amp; 35</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>9 &amp; 35</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>9 &amp; 56</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>10 &amp; 20</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>11 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>12 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>13 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>14 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>15 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>16 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>17 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>19 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>20 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>21 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>22 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>23 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>24 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>25 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>27 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>28 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>29 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>30 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>31 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>32 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>45 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>47 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>48 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>49 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>50 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>51 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>52 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>53 &amp; 17</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>54 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>55 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>56 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>57 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>58 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>59 &amp; 53</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>60 &amp; 53</c:v>
                 </c:pt>
               </c:strCache>
@@ -396,95 +420,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$49</c:f>
+              <c:f>Arkusz1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="1">
                   <c:v>25.38</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>27.18</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>25.26</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>26.05</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>25.51</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>25.01</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>26.71</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>28.16</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>26.18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>25.41</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>25.55</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>25.25</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>25.1</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>28.12</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>25.77</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>25.38</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>25.62</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>26.52</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>26.01</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>26.3</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>26.6</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>25.02</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>26.76</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>25.63</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>26.39</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>25.34</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>25.13</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>25.67</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>25.32</c:v>
                 </c:pt>
               </c:numCache>
@@ -500,11 +524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183252480"/>
-        <c:axId val="183254016"/>
+        <c:axId val="84277120"/>
+        <c:axId val="84278656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183252480"/>
+        <c:axId val="84277120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183254016"/>
+        <c:crossAx val="84278656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -522,7 +546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183254016"/>
+        <c:axId val="84278656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183252480"/>
+        <c:crossAx val="84277120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -559,16 +583,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -877,18 +901,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K1:L37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -916,16 +942,90 @@
       <c r="I1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="E2">
         <v>25.31</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2">
+        <v>25.07</v>
+      </c>
+      <c r="Q2">
+        <v>25.31</v>
+      </c>
+      <c r="R2">
+        <v>25.31</v>
+      </c>
+      <c r="AA2">
+        <f>COUNT(B2:Z2)</f>
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <f>AVERAGE(B2:Z2)</f>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -953,934 +1053,2798 @@
       <c r="I3">
         <v>26.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <v>25.74</v>
+      </c>
+      <c r="N3">
+        <v>25.71</v>
+      </c>
+      <c r="O3">
+        <v>25.61</v>
+      </c>
+      <c r="P3">
+        <v>25.42</v>
+      </c>
+      <c r="Q3">
+        <v>25.8</v>
+      </c>
+      <c r="R3">
+        <v>25.8</v>
+      </c>
+      <c r="S3">
+        <v>26.06</v>
+      </c>
+      <c r="T3">
+        <v>25.51</v>
+      </c>
+      <c r="V3">
+        <v>25.59</v>
+      </c>
+      <c r="Y3">
+        <v>25.7</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA52" si="0">COUNT(B3:Z3)</f>
+        <v>18</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB52" si="1">AVERAGE(B3:Z3)</f>
+        <v>25.701666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>25.04</v>
+      </c>
+      <c r="M4">
+        <v>25.09</v>
+      </c>
+      <c r="X4">
+        <v>25.52</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>25.216666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>26.01</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>25.3</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="L5">
+        <v>26.48</v>
+      </c>
+      <c r="M5">
+        <v>25.76</v>
+      </c>
+      <c r="N5">
+        <v>26.64</v>
+      </c>
+      <c r="O5">
+        <v>27.03</v>
+      </c>
+      <c r="P5">
+        <v>25.24</v>
+      </c>
+      <c r="Q5">
+        <v>25.1</v>
+      </c>
+      <c r="R5">
+        <v>25.1</v>
+      </c>
+      <c r="S5">
+        <v>26.39</v>
+      </c>
+      <c r="T5">
+        <v>25.86</v>
+      </c>
+      <c r="U5">
+        <v>27.06</v>
+      </c>
+      <c r="W5">
+        <v>25.9</v>
+      </c>
+      <c r="X5">
+        <v>27.43</v>
+      </c>
+      <c r="Y5">
+        <v>25.82</v>
+      </c>
+      <c r="Z5">
+        <v>26.47</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>26.105294117647055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>25.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="Z6">
+        <v>25.54</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>27.18</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>26.04</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>28.68</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>27.87</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>27.34</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>27.75</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>28.84</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>26.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="J7">
+        <v>26.89</v>
+      </c>
+      <c r="K7">
+        <v>26.04</v>
+      </c>
+      <c r="L7">
+        <v>26.93</v>
+      </c>
+      <c r="M7">
+        <v>26.45</v>
+      </c>
+      <c r="N7">
+        <v>27.82</v>
+      </c>
+      <c r="O7">
+        <v>26.57</v>
+      </c>
+      <c r="P7">
+        <v>26.84</v>
+      </c>
+      <c r="Q7">
+        <v>26.43</v>
+      </c>
+      <c r="R7">
+        <v>26.43</v>
+      </c>
+      <c r="S7">
+        <v>27.69</v>
+      </c>
+      <c r="T7">
+        <v>27.22</v>
+      </c>
+      <c r="U7">
+        <v>26.27</v>
+      </c>
+      <c r="V7">
+        <v>26.03</v>
+      </c>
+      <c r="W7">
+        <v>27.87</v>
+      </c>
+      <c r="X7">
+        <v>25.95</v>
+      </c>
+      <c r="Y7">
+        <v>27.51</v>
+      </c>
+      <c r="Z7">
+        <v>26.59</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>27.012800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>25.26</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>26.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="J8">
+        <v>25.22</v>
+      </c>
+      <c r="K8">
+        <v>25.16</v>
+      </c>
+      <c r="T8">
+        <v>25.16</v>
+      </c>
+      <c r="X8">
+        <v>26.4</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>25.598333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>25.26</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>25.89</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>25.12</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>25.77</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="L9">
+        <v>25.14</v>
+      </c>
+      <c r="M9">
+        <v>25.97</v>
+      </c>
+      <c r="P9">
+        <v>25.85</v>
+      </c>
+      <c r="X9">
+        <v>25.22</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>25.482222222222223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>25.17</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>25.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="P10">
+        <v>25.04</v>
+      </c>
+      <c r="Q10">
+        <v>25.51</v>
+      </c>
+      <c r="R10">
+        <v>25.51</v>
+      </c>
+      <c r="S10">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>25.05</v>
+      </c>
+      <c r="X10">
+        <v>25.19</v>
+      </c>
+      <c r="Y10">
+        <v>26.11</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>25.47333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>26.05</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>25.36</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>26.15</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>25.78</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="L11">
+        <v>25.09</v>
+      </c>
+      <c r="Q11">
+        <v>25.73</v>
+      </c>
+      <c r="R11">
+        <v>25.73</v>
+      </c>
+      <c r="V11">
+        <v>26.01</v>
+      </c>
+      <c r="X11">
+        <v>25.29</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>25.672999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>25.51</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>25.37</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>25.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="N12">
+        <v>25.12</v>
+      </c>
+      <c r="T12">
+        <v>25.7</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>25.408000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>25.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="P13">
+        <v>25.15</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14">
+        <v>25.57</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>25.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>25.17</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>26.71</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>28.15</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>28.83</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>26.81</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <v>28.46</v>
       </c>
-      <c r="G14">
+      <c r="G17">
         <v>27.13</v>
       </c>
-      <c r="H14">
+      <c r="H17">
         <v>27.67</v>
       </c>
-      <c r="I14">
+      <c r="I17">
         <v>26.55</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="J17">
+        <v>28.36</v>
+      </c>
+      <c r="K17">
+        <v>27.41</v>
+      </c>
+      <c r="L17">
+        <v>28.64</v>
+      </c>
+      <c r="M17">
+        <v>28.43</v>
+      </c>
+      <c r="N17">
+        <v>27.23</v>
+      </c>
+      <c r="O17">
+        <v>27.7</v>
+      </c>
+      <c r="P17">
+        <v>28.92</v>
+      </c>
+      <c r="Q17">
+        <v>28.23</v>
+      </c>
+      <c r="R17">
+        <v>28.23</v>
+      </c>
+      <c r="S17">
+        <v>28.05</v>
+      </c>
+      <c r="T17">
+        <v>26.79</v>
+      </c>
+      <c r="U17">
+        <v>26.11</v>
+      </c>
+      <c r="V17">
+        <v>27.59</v>
+      </c>
+      <c r="W17">
+        <v>29.25</v>
+      </c>
+      <c r="X17">
+        <v>26.73</v>
+      </c>
+      <c r="Y17">
+        <v>27.61</v>
+      </c>
+      <c r="Z17">
+        <v>28.37</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>27.758400000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>28.16</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>28.64</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>26.49</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>26.91</v>
       </c>
-      <c r="F15">
+      <c r="F18">
         <v>27.46</v>
       </c>
-      <c r="G15">
+      <c r="G18">
         <v>26.31</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="J18">
+        <v>25.42</v>
+      </c>
+      <c r="K18">
+        <v>26.39</v>
+      </c>
+      <c r="L18">
+        <v>28.05</v>
+      </c>
+      <c r="N18">
+        <v>25.78</v>
+      </c>
+      <c r="O18">
+        <v>26.38</v>
+      </c>
+      <c r="P18">
+        <v>26.84</v>
+      </c>
+      <c r="Q18">
+        <v>27.11</v>
+      </c>
+      <c r="R18">
+        <v>27.11</v>
+      </c>
+      <c r="S18">
+        <v>26.33</v>
+      </c>
+      <c r="T18">
+        <v>26.85</v>
+      </c>
+      <c r="U18">
+        <v>27.28</v>
+      </c>
+      <c r="V18">
+        <v>25.6</v>
+      </c>
+      <c r="W18">
+        <v>26.82</v>
+      </c>
+      <c r="X18">
+        <v>26.28</v>
+      </c>
+      <c r="Y18">
+        <v>25.04</v>
+      </c>
+      <c r="Z18">
+        <v>26.4</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>26.723913043478259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>26.18</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>25.52</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>25.1</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>26.49</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>25.86</v>
       </c>
-      <c r="H16">
+      <c r="H19">
         <v>25.34</v>
       </c>
-      <c r="I16">
+      <c r="I19">
         <v>25.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="K19">
+        <v>26.32</v>
+      </c>
+      <c r="M19">
+        <v>25.01</v>
+      </c>
+      <c r="N19">
+        <v>25.93</v>
+      </c>
+      <c r="O19">
+        <v>25.77</v>
+      </c>
+      <c r="P19">
+        <v>25.47</v>
+      </c>
+      <c r="Q19">
+        <v>26.68</v>
+      </c>
+      <c r="R19">
+        <v>26.68</v>
+      </c>
+      <c r="T19">
+        <v>25.2</v>
+      </c>
+      <c r="U19">
+        <v>26.13</v>
+      </c>
+      <c r="V19">
+        <v>26.47</v>
+      </c>
+      <c r="W19">
+        <v>25.65</v>
+      </c>
+      <c r="X19">
+        <v>25.35</v>
+      </c>
+      <c r="Y19">
+        <v>26.42</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>25.866999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>27.1</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>26.59</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>27.25</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>25.09</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>26.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="J20">
+        <v>26.1</v>
+      </c>
+      <c r="K20">
+        <v>25.53</v>
+      </c>
+      <c r="L20">
+        <v>26.48</v>
+      </c>
+      <c r="M20">
+        <v>25.23</v>
+      </c>
+      <c r="N20">
+        <v>25.42</v>
+      </c>
+      <c r="O20">
+        <v>25.83</v>
+      </c>
+      <c r="P20">
+        <v>26.04</v>
+      </c>
+      <c r="Q20">
+        <v>25.43</v>
+      </c>
+      <c r="R20">
+        <v>25.43</v>
+      </c>
+      <c r="S20">
+        <v>26.75</v>
+      </c>
+      <c r="T20">
+        <v>25.42</v>
+      </c>
+      <c r="U20">
+        <v>25.68</v>
+      </c>
+      <c r="W20">
+        <v>26.16</v>
+      </c>
+      <c r="X20">
+        <v>26.4</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>26.009473684210526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>25.91</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>25.61</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>26.58</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>26.74</v>
       </c>
-      <c r="G18">
+      <c r="G21">
         <v>25.91</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>25.05</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>25.03</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="J21">
+        <v>26.38</v>
+      </c>
+      <c r="K21">
+        <v>25.18</v>
+      </c>
+      <c r="M21">
+        <v>25.18</v>
+      </c>
+      <c r="O21">
+        <v>26.07</v>
+      </c>
+      <c r="P21">
+        <v>25.16</v>
+      </c>
+      <c r="Q21">
+        <v>26.59</v>
+      </c>
+      <c r="R21">
+        <v>26.59</v>
+      </c>
+      <c r="U21">
+        <v>26.01</v>
+      </c>
+      <c r="V21">
+        <v>26.36</v>
+      </c>
+      <c r="X21">
+        <v>25.46</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>25.871176470588232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>25.41</v>
-      </c>
-      <c r="C19">
-        <v>25.63</v>
-      </c>
-      <c r="G19">
-        <v>25.33</v>
-      </c>
-      <c r="H19">
-        <v>25.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>25.55</v>
-      </c>
-      <c r="D20">
-        <v>26.46</v>
-      </c>
-      <c r="E20">
-        <v>25.97</v>
-      </c>
-      <c r="F20">
-        <v>25.95</v>
-      </c>
-      <c r="G20">
-        <v>25.81</v>
-      </c>
-      <c r="H20">
-        <v>25.76</v>
-      </c>
-      <c r="I20">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>25.25</v>
-      </c>
-      <c r="C21">
-        <v>25.11</v>
-      </c>
-      <c r="D21">
-        <v>25.2</v>
-      </c>
-      <c r="E21">
-        <v>25.96</v>
-      </c>
-      <c r="F21">
-        <v>25.21</v>
-      </c>
-      <c r="H21">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>33</v>
       </c>
       <c r="C22">
         <v>25.63</v>
       </c>
-      <c r="D22">
+      <c r="G22">
+        <v>25.33</v>
+      </c>
+      <c r="H22">
+        <v>25.07</v>
+      </c>
+      <c r="L22">
+        <v>26.28</v>
+      </c>
+      <c r="N22">
         <v>25.11</v>
       </c>
-      <c r="E22">
+      <c r="P22">
+        <v>25.87</v>
+      </c>
+      <c r="Q22">
+        <v>26.23</v>
+      </c>
+      <c r="R22">
+        <v>26.23</v>
+      </c>
+      <c r="S22">
+        <v>27.09</v>
+      </c>
+      <c r="U22">
+        <v>25.54</v>
+      </c>
+      <c r="V22">
+        <v>25.32</v>
+      </c>
+      <c r="W22">
+        <v>25.27</v>
+      </c>
+      <c r="X22">
+        <v>25.01</v>
+      </c>
+      <c r="Y22">
+        <v>25.53</v>
+      </c>
+      <c r="Z22">
+        <v>25.92</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>25.677499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>25.55</v>
+      </c>
+      <c r="D23">
+        <v>26.46</v>
+      </c>
+      <c r="E23">
+        <v>25.97</v>
+      </c>
+      <c r="F23">
+        <v>25.95</v>
+      </c>
+      <c r="G23">
+        <v>25.81</v>
+      </c>
+      <c r="H23">
+        <v>25.76</v>
+      </c>
+      <c r="I23">
+        <v>26.3</v>
+      </c>
+      <c r="J23">
+        <v>26.6</v>
+      </c>
+      <c r="L23">
+        <v>25.12</v>
+      </c>
+      <c r="N23">
+        <v>26.77</v>
+      </c>
+      <c r="P23">
+        <v>27.1</v>
+      </c>
+      <c r="Q23">
+        <v>26.68</v>
+      </c>
+      <c r="R23">
+        <v>26.68</v>
+      </c>
+      <c r="T23">
+        <v>25.17</v>
+      </c>
+      <c r="V23">
+        <v>27.02</v>
+      </c>
+      <c r="W23">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>25.55</v>
+      </c>
+      <c r="Y23">
+        <v>26.23</v>
+      </c>
+      <c r="Z23">
+        <v>26.4</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>26.164210526315792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>25.25</v>
+      </c>
+      <c r="C24">
+        <v>25.11</v>
+      </c>
+      <c r="D24">
+        <v>25.2</v>
+      </c>
+      <c r="E24">
+        <v>25.96</v>
+      </c>
+      <c r="F24">
+        <v>25.21</v>
+      </c>
+      <c r="H24">
+        <v>25.28</v>
+      </c>
+      <c r="J24">
+        <v>25.26</v>
+      </c>
+      <c r="N24">
+        <v>25.42</v>
+      </c>
+      <c r="P24">
+        <v>25.82</v>
+      </c>
+      <c r="Q24">
+        <v>25.08</v>
+      </c>
+      <c r="R24">
+        <v>25.08</v>
+      </c>
+      <c r="S24">
+        <v>25.07</v>
+      </c>
+      <c r="T24">
+        <v>25.23</v>
+      </c>
+      <c r="V24">
+        <v>25.08</v>
+      </c>
+      <c r="X24">
+        <v>25.41</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>25.297333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>25.63</v>
+      </c>
+      <c r="D25">
+        <v>25.11</v>
+      </c>
+      <c r="E25">
         <v>25.04</v>
       </c>
-      <c r="I22">
+      <c r="I25">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="J25">
+        <v>25.11</v>
+      </c>
+      <c r="K25">
+        <v>25.17</v>
+      </c>
+      <c r="L25">
+        <v>25.12</v>
+      </c>
+      <c r="N25">
+        <v>25.29</v>
+      </c>
+      <c r="O25">
+        <v>25.08</v>
+      </c>
+      <c r="S25">
+        <v>25.21</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>25.201000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>25.1</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>25.38</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>25.42</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>25.3</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>25.09</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <v>25.31</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="K26">
+        <v>25.07</v>
+      </c>
+      <c r="M26">
+        <v>25.07</v>
+      </c>
+      <c r="O26">
+        <v>25.27</v>
+      </c>
+      <c r="P26">
+        <v>25.16</v>
+      </c>
+      <c r="V26">
+        <v>25.07</v>
+      </c>
+      <c r="Y26">
+        <v>25.46</v>
+      </c>
+      <c r="Z26">
+        <v>25.05</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>25.21153846153846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>25.05</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>25.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="X27">
+        <v>25.27</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>25.123333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>25.26</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="J28">
+        <v>25.01</v>
+      </c>
+      <c r="P28">
+        <v>25.16</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>25.143333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>25.21</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>25.16</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>25.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="J29">
+        <v>25.35</v>
+      </c>
+      <c r="N29">
+        <v>25.21</v>
+      </c>
+      <c r="O29">
+        <v>25.18</v>
+      </c>
+      <c r="S29">
+        <v>25.28</v>
+      </c>
+      <c r="T29">
+        <v>25.26</v>
+      </c>
+      <c r="Y29">
+        <v>25.43</v>
+      </c>
+      <c r="Z29">
+        <v>25.13</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>25.222000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>25.03</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>25.11</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="J30">
+        <v>25.34</v>
+      </c>
+      <c r="K30">
+        <v>25.03</v>
+      </c>
+      <c r="O30">
+        <v>25.33</v>
+      </c>
+      <c r="U30">
+        <v>25.04</v>
+      </c>
+      <c r="W30">
+        <v>25.13</v>
+      </c>
+      <c r="Y30">
+        <v>25.09</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>25.137499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="F28">
+      <c r="F31">
         <v>25.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="1"/>
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>28.12</v>
       </c>
-      <c r="C29">
+      <c r="C32">
         <v>27.23</v>
       </c>
-      <c r="D29">
+      <c r="D32">
         <v>28.63</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>27.65</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>28.05</v>
       </c>
-      <c r="G29">
+      <c r="G32">
         <v>27.02</v>
       </c>
-      <c r="H29">
+      <c r="H32">
         <v>28.64</v>
       </c>
-      <c r="I29">
+      <c r="I32">
         <v>27.29</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+      <c r="J32">
+        <v>28.75</v>
+      </c>
+      <c r="K32">
+        <v>27.63</v>
+      </c>
+      <c r="L32">
+        <v>27.02</v>
+      </c>
+      <c r="M32">
+        <v>27.45</v>
+      </c>
+      <c r="N32">
+        <v>28.46</v>
+      </c>
+      <c r="O32">
+        <v>27.97</v>
+      </c>
+      <c r="P32">
+        <v>28.18</v>
+      </c>
+      <c r="Q32">
+        <v>28.07</v>
+      </c>
+      <c r="R32">
+        <v>28.07</v>
+      </c>
+      <c r="S32">
+        <v>27.52</v>
+      </c>
+      <c r="T32">
+        <v>28.1</v>
+      </c>
+      <c r="U32">
+        <v>27.07</v>
+      </c>
+      <c r="V32">
+        <v>28.44</v>
+      </c>
+      <c r="W32">
+        <v>27.78</v>
+      </c>
+      <c r="X32">
+        <v>28.17</v>
+      </c>
+      <c r="Y32">
+        <v>27.54</v>
+      </c>
+      <c r="Z32">
+        <v>27.56</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="1"/>
+        <v>27.856399999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>25.77</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>25.95</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>26.18</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>25.21</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>25.64</v>
       </c>
-      <c r="G30">
+      <c r="G33">
         <v>26.03</v>
       </c>
-      <c r="H30">
+      <c r="H33">
         <v>25.64</v>
       </c>
-      <c r="I30">
+      <c r="I33">
         <v>25.67</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="J33">
+        <v>25.98</v>
+      </c>
+      <c r="K33">
+        <v>26.22</v>
+      </c>
+      <c r="L33">
+        <v>25.65</v>
+      </c>
+      <c r="M33">
+        <v>25.74</v>
+      </c>
+      <c r="N33">
+        <v>25.68</v>
+      </c>
+      <c r="O33">
+        <v>25.61</v>
+      </c>
+      <c r="P33">
+        <v>26.22</v>
+      </c>
+      <c r="Q33">
+        <v>26.31</v>
+      </c>
+      <c r="R33">
+        <v>26.31</v>
+      </c>
+      <c r="S33">
+        <v>25.35</v>
+      </c>
+      <c r="T33">
+        <v>25.08</v>
+      </c>
+      <c r="U33">
+        <v>25.12</v>
+      </c>
+      <c r="V33">
+        <v>25.36</v>
+      </c>
+      <c r="W33">
+        <v>25.92</v>
+      </c>
+      <c r="X33">
+        <v>25.02</v>
+      </c>
+      <c r="Y33">
+        <v>25.11</v>
+      </c>
+      <c r="Z33">
+        <v>26.44</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="1"/>
+        <v>25.728400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>25.38</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>25.71</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>25.46</v>
       </c>
-      <c r="F31">
+      <c r="F34">
         <v>25.01</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <v>25.67</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <v>25.37</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <v>25.62</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="J34">
+        <v>25.35</v>
+      </c>
+      <c r="K34">
+        <v>25.23</v>
+      </c>
+      <c r="L34">
+        <v>25.57</v>
+      </c>
+      <c r="M34">
+        <v>25.53</v>
+      </c>
+      <c r="N34">
+        <v>25.8</v>
+      </c>
+      <c r="O34">
+        <v>25.03</v>
+      </c>
+      <c r="P34">
+        <v>25.59</v>
+      </c>
+      <c r="Q34">
+        <v>25.83</v>
+      </c>
+      <c r="R34">
+        <v>25.83</v>
+      </c>
+      <c r="S34">
+        <v>25.52</v>
+      </c>
+      <c r="T34">
+        <v>25.34</v>
+      </c>
+      <c r="U34">
+        <v>25.41</v>
+      </c>
+      <c r="V34">
+        <v>25.94</v>
+      </c>
+      <c r="W34">
+        <v>25.1</v>
+      </c>
+      <c r="X34">
+        <v>25.15</v>
+      </c>
+      <c r="Z34">
+        <v>25.77</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>25.487391304347824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>25.62</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>26.51</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>26.03</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>25.92</v>
       </c>
-      <c r="F32">
+      <c r="F35">
         <v>25.27</v>
       </c>
-      <c r="G32">
+      <c r="G35">
         <v>25.75</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="J35">
+        <v>25.61</v>
+      </c>
+      <c r="K35">
+        <v>25.38</v>
+      </c>
+      <c r="L35">
+        <v>25.78</v>
+      </c>
+      <c r="M35">
+        <v>26.01</v>
+      </c>
+      <c r="N35">
+        <v>26.05</v>
+      </c>
+      <c r="O35">
+        <v>25.71</v>
+      </c>
+      <c r="P35">
+        <v>26.49</v>
+      </c>
+      <c r="Q35">
+        <v>25.64</v>
+      </c>
+      <c r="R35">
+        <v>25.64</v>
+      </c>
+      <c r="S35">
+        <v>25.28</v>
+      </c>
+      <c r="T35">
+        <v>25.44</v>
+      </c>
+      <c r="U35">
+        <v>25.52</v>
+      </c>
+      <c r="V35">
+        <v>25.89</v>
+      </c>
+      <c r="W35">
+        <v>25.84</v>
+      </c>
+      <c r="X35">
+        <v>25.68</v>
+      </c>
+      <c r="Y35">
+        <v>25.76</v>
+      </c>
+      <c r="Z35">
+        <v>25.36</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>25.748749999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>26.52</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>25.76</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>25.54</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>26.14</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>26.07</v>
       </c>
-      <c r="G33">
+      <c r="G36">
         <v>26.12</v>
       </c>
-      <c r="H33">
+      <c r="H36">
         <v>25.07</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="J36">
+        <v>26.62</v>
+      </c>
+      <c r="K36">
+        <v>25.65</v>
+      </c>
+      <c r="L36">
+        <v>25.39</v>
+      </c>
+      <c r="M36">
+        <v>25.89</v>
+      </c>
+      <c r="N36">
+        <v>25.69</v>
+      </c>
+      <c r="O36">
+        <v>26.03</v>
+      </c>
+      <c r="P36">
+        <v>26.22</v>
+      </c>
+      <c r="Q36">
+        <v>26.1</v>
+      </c>
+      <c r="R36">
+        <v>26.1</v>
+      </c>
+      <c r="S36">
+        <v>25.68</v>
+      </c>
+      <c r="T36">
+        <v>25.83</v>
+      </c>
+      <c r="U36">
+        <v>25.71</v>
+      </c>
+      <c r="V36">
+        <v>26.27</v>
+      </c>
+      <c r="W36">
+        <v>25.77</v>
+      </c>
+      <c r="X36">
+        <v>25.61</v>
+      </c>
+      <c r="Y36">
+        <v>25.96</v>
+      </c>
+      <c r="Z36">
+        <v>25.52</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="1"/>
+        <v>25.878400000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>26.01</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>25.91</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>26.14</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>25.45</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>25.96</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>25.63</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>25.98</v>
       </c>
-      <c r="I34">
+      <c r="I37">
         <v>26.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="J37">
+        <v>26.13</v>
+      </c>
+      <c r="K37">
+        <v>25.51</v>
+      </c>
+      <c r="L37">
+        <v>25.08</v>
+      </c>
+      <c r="M37">
+        <v>26.04</v>
+      </c>
+      <c r="N37">
+        <v>25.85</v>
+      </c>
+      <c r="O37">
+        <v>25.88</v>
+      </c>
+      <c r="P37">
+        <v>26.57</v>
+      </c>
+      <c r="Q37">
+        <v>25.77</v>
+      </c>
+      <c r="R37">
+        <v>25.77</v>
+      </c>
+      <c r="S37">
+        <v>25.72</v>
+      </c>
+      <c r="T37">
+        <v>25.38</v>
+      </c>
+      <c r="U37">
+        <v>26.18</v>
+      </c>
+      <c r="V37">
+        <v>25.91</v>
+      </c>
+      <c r="W37">
+        <v>25.88</v>
+      </c>
+      <c r="X37">
+        <v>25.49</v>
+      </c>
+      <c r="Y37">
+        <v>25.23</v>
+      </c>
+      <c r="Z37">
+        <v>26.56</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="1"/>
+        <v>25.843199999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B35">
+      <c r="B38">
         <v>26.3</v>
       </c>
-      <c r="C35">
+      <c r="C38">
         <v>26.64</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>26.28</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>26.06</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>26.01</v>
       </c>
-      <c r="G35">
+      <c r="G38">
         <v>26.52</v>
       </c>
-      <c r="H35">
+      <c r="H38">
         <v>26.39</v>
       </c>
-      <c r="I35">
+      <c r="I38">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="J38">
+        <v>26.57</v>
+      </c>
+      <c r="K38">
+        <v>26.5</v>
+      </c>
+      <c r="L38">
+        <v>26.72</v>
+      </c>
+      <c r="M38">
+        <v>26.01</v>
+      </c>
+      <c r="N38">
+        <v>26.24</v>
+      </c>
+      <c r="O38">
+        <v>26.06</v>
+      </c>
+      <c r="P38">
+        <v>26.63</v>
+      </c>
+      <c r="Q38">
+        <v>26.58</v>
+      </c>
+      <c r="R38">
+        <v>26.58</v>
+      </c>
+      <c r="S38">
+        <v>26.28</v>
+      </c>
+      <c r="T38">
+        <v>26.29</v>
+      </c>
+      <c r="U38">
+        <v>26.27</v>
+      </c>
+      <c r="V38">
+        <v>26.49</v>
+      </c>
+      <c r="W38">
+        <v>26.66</v>
+      </c>
+      <c r="X38">
+        <v>26.54</v>
+      </c>
+      <c r="Y38">
+        <v>25.89</v>
+      </c>
+      <c r="Z38">
+        <v>26.89</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="1"/>
+        <v>26.405999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="B39">
         <v>26.6</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <v>26.15</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>26.54</v>
       </c>
-      <c r="E36">
+      <c r="E39">
         <v>27.46</v>
       </c>
-      <c r="F36">
+      <c r="F39">
         <v>26.41</v>
       </c>
-      <c r="G36">
+      <c r="G39">
         <v>26.92</v>
       </c>
-      <c r="H36">
+      <c r="H39">
         <v>27.11</v>
       </c>
-      <c r="I36">
+      <c r="I39">
         <v>26.71</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+      <c r="J39">
+        <v>27.51</v>
+      </c>
+      <c r="K39">
+        <v>26.57</v>
+      </c>
+      <c r="L39">
+        <v>27.43</v>
+      </c>
+      <c r="M39">
+        <v>26.65</v>
+      </c>
+      <c r="N39">
+        <v>25.9</v>
+      </c>
+      <c r="O39">
+        <v>27.29</v>
+      </c>
+      <c r="P39">
+        <v>26.77</v>
+      </c>
+      <c r="Q39">
+        <v>26.85</v>
+      </c>
+      <c r="R39">
+        <v>26.85</v>
+      </c>
+      <c r="S39">
+        <v>26.99</v>
+      </c>
+      <c r="T39">
+        <v>26.49</v>
+      </c>
+      <c r="U39">
+        <v>26.66</v>
+      </c>
+      <c r="V39">
+        <v>26.88</v>
+      </c>
+      <c r="W39">
+        <v>26.65</v>
+      </c>
+      <c r="X39">
+        <v>26.6</v>
+      </c>
+      <c r="Y39">
+        <v>26.84</v>
+      </c>
+      <c r="Z39">
+        <v>27.03</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="1"/>
+        <v>26.7944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="E37">
+      <c r="E40">
         <v>25.33</v>
       </c>
-      <c r="F37">
+      <c r="F40">
         <v>25.28</v>
       </c>
-      <c r="G37">
+      <c r="G40">
         <v>25.55</v>
       </c>
-      <c r="I37">
+      <c r="I40">
         <v>25.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+      <c r="J40">
+        <v>25.11</v>
+      </c>
+      <c r="L40">
+        <v>25.13</v>
+      </c>
+      <c r="M40">
+        <v>25.35</v>
+      </c>
+      <c r="N40">
+        <v>25.23</v>
+      </c>
+      <c r="O40">
+        <v>25.33</v>
+      </c>
+      <c r="P40">
+        <v>25.1</v>
+      </c>
+      <c r="S40">
+        <v>25.46</v>
+      </c>
+      <c r="T40">
+        <v>25.12</v>
+      </c>
+      <c r="U40">
+        <v>25.12</v>
+      </c>
+      <c r="W40">
+        <v>25.13</v>
+      </c>
+      <c r="X40">
+        <v>25.2</v>
+      </c>
+      <c r="Y40">
+        <v>25.3</v>
+      </c>
+      <c r="Z40">
+        <v>25.21</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="1"/>
+        <v>25.245882352941173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>25.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+      <c r="J41">
+        <v>25.17</v>
+      </c>
+      <c r="S41">
+        <v>25.65</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="1"/>
+        <v>25.323333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>25.53</v>
       </c>
-      <c r="G39">
+      <c r="G42">
         <v>25.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+      <c r="O42">
+        <v>25.42</v>
+      </c>
+      <c r="S42">
+        <v>25.09</v>
+      </c>
+      <c r="Y42">
+        <v>25.25</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="1"/>
+        <v>25.304000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
+      <c r="B43">
         <v>25.02</v>
       </c>
-      <c r="D40">
+      <c r="D43">
         <v>25.21</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>25.38</v>
       </c>
-      <c r="F40">
+      <c r="F43">
         <v>25.51</v>
       </c>
-      <c r="I40">
+      <c r="I43">
         <v>25.41</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+      <c r="J43">
+        <v>25.12</v>
+      </c>
+      <c r="L43">
+        <v>25.06</v>
+      </c>
+      <c r="M43">
+        <v>25.13</v>
+      </c>
+      <c r="S43">
+        <v>25.31</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="1"/>
+        <v>25.238888888888891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="C41">
+      <c r="C44">
         <v>25.02</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>25.19</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+      <c r="J44">
+        <v>25.22</v>
+      </c>
+      <c r="L44">
+        <v>25.31</v>
+      </c>
+      <c r="O44">
+        <v>25.13</v>
+      </c>
+      <c r="P44">
+        <v>25.42</v>
+      </c>
+      <c r="S44">
+        <v>25.24</v>
+      </c>
+      <c r="Z44">
+        <v>25.27</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="1"/>
+        <v>25.225000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="E42">
+      <c r="E45">
         <v>25.37</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="AA45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="1"/>
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B43">
+      <c r="B46">
         <v>26.76</v>
       </c>
-      <c r="C43">
+      <c r="C46">
         <v>26.49</v>
       </c>
-      <c r="D43">
+      <c r="D46">
         <v>26.32</v>
       </c>
-      <c r="E43">
+      <c r="E46">
         <v>25.78</v>
       </c>
-      <c r="F43">
+      <c r="F46">
         <v>26.43</v>
       </c>
-      <c r="G43">
+      <c r="G46">
         <v>26.59</v>
       </c>
-      <c r="H43">
+      <c r="H46">
         <v>25.54</v>
       </c>
-      <c r="I43">
+      <c r="I46">
         <v>26.66</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+      <c r="J46">
+        <v>25.83</v>
+      </c>
+      <c r="K46">
+        <v>26.36</v>
+      </c>
+      <c r="L46">
+        <v>26.17</v>
+      </c>
+      <c r="M46">
+        <v>26.03</v>
+      </c>
+      <c r="N46">
+        <v>26.38</v>
+      </c>
+      <c r="O46">
+        <v>26.07</v>
+      </c>
+      <c r="P46">
+        <v>26.84</v>
+      </c>
+      <c r="Q46">
+        <v>26.33</v>
+      </c>
+      <c r="R46">
+        <v>26.33</v>
+      </c>
+      <c r="S46">
+        <v>26.54</v>
+      </c>
+      <c r="T46">
+        <v>25.92</v>
+      </c>
+      <c r="U46">
+        <v>26.22</v>
+      </c>
+      <c r="V46">
+        <v>26.39</v>
+      </c>
+      <c r="W46">
+        <v>26.25</v>
+      </c>
+      <c r="X46">
+        <v>26.39</v>
+      </c>
+      <c r="Y46">
+        <v>25.78</v>
+      </c>
+      <c r="Z46">
+        <v>26.83</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="1"/>
+        <v>26.289200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" t="s">
         <v>23</v>
       </c>
-      <c r="B44">
+      <c r="B47">
         <v>25.63</v>
       </c>
-      <c r="C44">
+      <c r="C47">
         <v>25.13</v>
       </c>
-      <c r="D44">
+      <c r="D47">
         <v>25.36</v>
       </c>
-      <c r="E44">
+      <c r="E47">
         <v>25.44</v>
       </c>
-      <c r="G44">
+      <c r="G47">
         <v>25.59</v>
       </c>
-      <c r="H44">
+      <c r="H47">
         <v>25.72</v>
       </c>
-      <c r="I44">
+      <c r="I47">
         <v>25.12</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+      <c r="J47">
+        <v>25.81</v>
+      </c>
+      <c r="L47">
+        <v>25.41</v>
+      </c>
+      <c r="M47">
+        <v>25.4</v>
+      </c>
+      <c r="N47">
+        <v>26.1</v>
+      </c>
+      <c r="O47">
+        <v>25.24</v>
+      </c>
+      <c r="P47">
+        <v>26.18</v>
+      </c>
+      <c r="Q47">
+        <v>25.7</v>
+      </c>
+      <c r="R47">
+        <v>25.7</v>
+      </c>
+      <c r="S47">
+        <v>25.59</v>
+      </c>
+      <c r="T47">
+        <v>25.41</v>
+      </c>
+      <c r="U47">
+        <v>25.01</v>
+      </c>
+      <c r="V47">
+        <v>26.47</v>
+      </c>
+      <c r="W47">
+        <v>25.1</v>
+      </c>
+      <c r="X47">
+        <v>25.13</v>
+      </c>
+      <c r="Y47">
+        <v>26.04</v>
+      </c>
+      <c r="Z47">
+        <v>26.32</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="1"/>
+        <v>25.591304347826089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
         <v>24</v>
       </c>
-      <c r="B45">
+      <c r="B48">
         <v>26.39</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>26.22</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>26.61</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>26.58</v>
       </c>
-      <c r="F45">
+      <c r="F48">
         <v>26.22</v>
       </c>
-      <c r="G45">
+      <c r="G48">
         <v>26.26</v>
       </c>
-      <c r="H45">
+      <c r="H48">
         <v>25.69</v>
       </c>
-      <c r="I45">
+      <c r="I48">
         <v>26.36</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
+      <c r="J48">
+        <v>26.14</v>
+      </c>
+      <c r="K48">
+        <v>26.41</v>
+      </c>
+      <c r="L48">
+        <v>25.68</v>
+      </c>
+      <c r="M48">
+        <v>25.67</v>
+      </c>
+      <c r="N48">
+        <v>26.85</v>
+      </c>
+      <c r="O48">
+        <v>26.76</v>
+      </c>
+      <c r="P48">
+        <v>26.93</v>
+      </c>
+      <c r="Q48">
+        <v>26.18</v>
+      </c>
+      <c r="R48">
+        <v>26.18</v>
+      </c>
+      <c r="S48">
+        <v>25.88</v>
+      </c>
+      <c r="T48">
+        <v>26.29</v>
+      </c>
+      <c r="U48">
+        <v>25.76</v>
+      </c>
+      <c r="V48">
+        <v>25.81</v>
+      </c>
+      <c r="W48">
+        <v>26.57</v>
+      </c>
+      <c r="X48">
+        <v>26.1</v>
+      </c>
+      <c r="Y48">
+        <v>26.28</v>
+      </c>
+      <c r="Z48">
+        <v>26.31</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B46">
+      <c r="AB48">
+        <f t="shared" si="1"/>
+        <v>26.245200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
         <v>25.34</v>
       </c>
-      <c r="C46">
+      <c r="C49">
         <v>25.44</v>
       </c>
-      <c r="D46">
+      <c r="D49">
         <v>26.26</v>
       </c>
-      <c r="E46">
+      <c r="E49">
         <v>25.57</v>
       </c>
-      <c r="F46">
+      <c r="F49">
         <v>25.76</v>
       </c>
-      <c r="G46">
+      <c r="G49">
         <v>26.2</v>
       </c>
-      <c r="H46">
+      <c r="H49">
         <v>26.13</v>
       </c>
-      <c r="I46">
+      <c r="I49">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+      <c r="J49">
+        <v>25.52</v>
+      </c>
+      <c r="L49">
+        <v>25.56</v>
+      </c>
+      <c r="M49">
+        <v>25.21</v>
+      </c>
+      <c r="N49">
+        <v>25.82</v>
+      </c>
+      <c r="O49">
+        <v>25.29</v>
+      </c>
+      <c r="P49">
+        <v>25.98</v>
+      </c>
+      <c r="Q49">
+        <v>25.22</v>
+      </c>
+      <c r="R49">
+        <v>25.22</v>
+      </c>
+      <c r="S49">
+        <v>26.08</v>
+      </c>
+      <c r="T49">
+        <v>25.33</v>
+      </c>
+      <c r="U49">
+        <v>25.21</v>
+      </c>
+      <c r="V49">
+        <v>26.5</v>
+      </c>
+      <c r="X49">
+        <v>25.77</v>
+      </c>
+      <c r="Y49">
+        <v>25.58</v>
+      </c>
+      <c r="Z49">
+        <v>26.02</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="1"/>
+        <v>25.696086956521732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" t="s">
         <v>26</v>
       </c>
-      <c r="B47">
+      <c r="B50">
         <v>25.13</v>
       </c>
-      <c r="C47">
+      <c r="C50">
         <v>25.32</v>
       </c>
-      <c r="D47">
+      <c r="D50">
         <v>25.41</v>
       </c>
-      <c r="E47">
+      <c r="E50">
         <v>25.36</v>
       </c>
-      <c r="F47">
+      <c r="F50">
         <v>25.18</v>
       </c>
-      <c r="G47">
+      <c r="G50">
         <v>25.55</v>
       </c>
-      <c r="H47">
+      <c r="H50">
         <v>25.79</v>
       </c>
-      <c r="I47">
+      <c r="I50">
         <v>25.57</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="J50">
+        <v>25.34</v>
+      </c>
+      <c r="K50">
+        <v>25.74</v>
+      </c>
+      <c r="L50">
+        <v>25.83</v>
+      </c>
+      <c r="M50">
+        <v>25.67</v>
+      </c>
+      <c r="N50">
+        <v>26.17</v>
+      </c>
+      <c r="O50">
+        <v>25.33</v>
+      </c>
+      <c r="P50">
+        <v>26.14</v>
+      </c>
+      <c r="Q50">
+        <v>25.89</v>
+      </c>
+      <c r="R50">
+        <v>25.89</v>
+      </c>
+      <c r="S50">
+        <v>25.17</v>
+      </c>
+      <c r="T50">
+        <v>25.26</v>
+      </c>
+      <c r="U50">
+        <v>25.67</v>
+      </c>
+      <c r="V50">
+        <v>25.62</v>
+      </c>
+      <c r="W50">
+        <v>25.5</v>
+      </c>
+      <c r="X50">
+        <v>25.58</v>
+      </c>
+      <c r="Y50">
+        <v>25.06</v>
+      </c>
+      <c r="Z50">
+        <v>26.4</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="1"/>
+        <v>25.582799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B48">
+      <c r="B51">
         <v>25.67</v>
       </c>
-      <c r="C48">
+      <c r="C51">
         <v>25.35</v>
       </c>
-      <c r="D48">
+      <c r="D51">
         <v>26.01</v>
       </c>
-      <c r="E48">
+      <c r="E51">
         <v>26.06</v>
       </c>
-      <c r="F48">
+      <c r="F51">
         <v>26.18</v>
       </c>
-      <c r="G48">
+      <c r="G51">
         <v>25.55</v>
       </c>
-      <c r="H48">
+      <c r="H51">
         <v>25.82</v>
       </c>
-      <c r="I48">
+      <c r="I51">
         <v>25.72</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+      <c r="J51">
+        <v>25.8</v>
+      </c>
+      <c r="K51">
+        <v>25.51</v>
+      </c>
+      <c r="L51">
+        <v>25.63</v>
+      </c>
+      <c r="M51">
+        <v>25.42</v>
+      </c>
+      <c r="N51">
+        <v>26.31</v>
+      </c>
+      <c r="O51">
+        <v>25.6</v>
+      </c>
+      <c r="P51">
+        <v>26.03</v>
+      </c>
+      <c r="Q51">
+        <v>26.42</v>
+      </c>
+      <c r="R51">
+        <v>26.42</v>
+      </c>
+      <c r="S51">
+        <v>25.76</v>
+      </c>
+      <c r="T51">
+        <v>26.25</v>
+      </c>
+      <c r="U51">
+        <v>25.61</v>
+      </c>
+      <c r="V51">
+        <v>26.18</v>
+      </c>
+      <c r="W51">
+        <v>25.49</v>
+      </c>
+      <c r="X51">
+        <v>25.58</v>
+      </c>
+      <c r="Y51">
+        <v>25.78</v>
+      </c>
+      <c r="Z51">
+        <v>26.16</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="1"/>
+        <v>25.852400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" t="s">
         <v>28</v>
       </c>
-      <c r="B49">
+      <c r="B52">
         <v>25.32</v>
       </c>
-      <c r="C49">
+      <c r="C52">
         <v>25.49</v>
       </c>
-      <c r="D49">
+      <c r="D52">
         <v>26.23</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>25.55</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>25.57</v>
       </c>
-      <c r="G49">
+      <c r="G52">
         <v>26.26</v>
       </c>
-      <c r="H49">
+      <c r="H52">
         <v>25.87</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>26.03</v>
+      </c>
+      <c r="J52">
+        <v>25.68</v>
+      </c>
+      <c r="K52">
+        <v>25.84</v>
+      </c>
+      <c r="L52">
+        <v>25.42</v>
+      </c>
+      <c r="M52">
+        <v>25.82</v>
+      </c>
+      <c r="N52">
+        <v>26.27</v>
+      </c>
+      <c r="O52">
+        <v>25.88</v>
+      </c>
+      <c r="P52">
+        <v>26.26</v>
+      </c>
+      <c r="Q52">
+        <v>26.11</v>
+      </c>
+      <c r="R52">
+        <v>26.11</v>
+      </c>
+      <c r="S52">
+        <v>25.93</v>
+      </c>
+      <c r="T52">
+        <v>25.51</v>
+      </c>
+      <c r="U52">
+        <v>26.26</v>
+      </c>
+      <c r="V52">
+        <v>25.73</v>
+      </c>
+      <c r="W52">
+        <v>26.13</v>
+      </c>
+      <c r="X52">
+        <v>26.35</v>
+      </c>
+      <c r="Y52">
+        <v>25.73</v>
+      </c>
+      <c r="Z52">
+        <v>26.38</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="1"/>
+        <v>25.909200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="AB53">
+        <f>MAX(AB2:AB52)</f>
+        <v>27.856399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/SudokuZaleznosci/bin/Debug/Iteracje/sudoku.xlsx
+++ b/SudokuZaleznosci/bin/Debug/Iteracje/sudoku.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>2 &amp; 17</t>
   </si>
@@ -246,11 +246,197 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Wartość procentowa zależności</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$Y$58:$Y$70</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60 &amp; 53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Z$58:$Z$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>27.012800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.758400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.856399999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.728400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.878400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.843199999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.7944</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.289200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.245200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.582799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.852400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.909200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="48334720"/>
+        <c:axId val="48340992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48334720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48340992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48340992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48334720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -420,96 +606,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$52</c:f>
+              <c:f>Arkusz1!$AA$2:$AA$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.38</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.18</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.26</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.05</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.51</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.01</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.71</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.16</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.18</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.41</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.55</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.25</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.1</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.77</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.38</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>25.62</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.52</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.01</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.3</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.6</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>25.02</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.76</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25.63</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.39</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.34</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25.13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.67</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25.32</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,21 +776,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84277120"/>
-        <c:axId val="84278656"/>
+        <c:axId val="92627328"/>
+        <c:axId val="67289856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84277120"/>
+        <c:axId val="92627328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84278656"/>
+        <c:crossAx val="67289856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,9 +797,433 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84278656"/>
+        <c:axId val="67289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92627328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>średnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz2!$A$2:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 &amp; 20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 &amp; 35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8 &amp; 20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8 &amp; 35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9 &amp; 35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9 &amp; 56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10 &amp; 20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53 &amp; 17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>57 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>58 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>59 &amp; 53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60 &amp; 53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$AA$2:$AA$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.701666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.216666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.105294117647055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.012800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.598333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.482222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.47333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.672999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.758400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.723913043478259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.009473684210526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.871176470588232</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.677499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.164210526315792</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.297333333333331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.21153846153846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.123333333333335</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.143333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.137499999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.856399999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.728400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.487391304347824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.748749999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.878400000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.843199999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.7944</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.245882352941173</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.323333333333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.238888888888891</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.225000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25.37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.289200000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.591304347826089</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.245200000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.696086956521732</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.582799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.852400000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.909200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="89907200"/>
+        <c:axId val="66794240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89907200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66794240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66794240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="28"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -557,16 +1232,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84277120"/>
+        <c:crossAx val="89907200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -583,20 +1253,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4402</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>494259</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>93729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -901,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1088,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB52" si="1">AVERAGE(B3:Z3)</f>
+        <f t="shared" ref="AB3:AD52" si="1">AVERAGE(B3:Z3)</f>
         <v>25.701666666666668</v>
       </c>
     </row>
@@ -2762,7 +3497,7 @@
         <v>25</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B36:Z36)</f>
         <v>25.878400000000003</v>
       </c>
     </row>
@@ -2850,7 +3585,7 @@
         <v>25</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B37:Z37)</f>
         <v>25.843199999999992</v>
       </c>
     </row>
@@ -2938,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B38:Z38)</f>
         <v>26.405999999999999</v>
       </c>
     </row>
@@ -3026,7 +3761,7 @@
         <v>25</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(B39:Z39)</f>
         <v>26.7944</v>
       </c>
     </row>
@@ -3845,6 +4580,110 @@
       <c r="AB53">
         <f>MAX(AB2:AB52)</f>
         <v>27.856399999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="Y58" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>27.012800000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="Y59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z59">
+        <v>27.758400000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="Y60" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z60">
+        <v>27.856399999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="Y61" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z61">
+        <v>25.728400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="Y62" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z62">
+        <v>25.878400000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="Y63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z63">
+        <v>25.843199999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="Y64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z64">
+        <v>26.405999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="25:26">
+      <c r="Y65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z65">
+        <v>26.7944</v>
+      </c>
+    </row>
+    <row r="66" spans="25:26">
+      <c r="Y66" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z66">
+        <v>26.289200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="25:26">
+      <c r="Y67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z67">
+        <v>26.245200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="25:26">
+      <c r="Y68" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z68">
+        <v>25.582799999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="25:26">
+      <c r="Y69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z69">
+        <v>25.852400000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="25:26">
+      <c r="Y70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z70">
+        <v>25.909200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3855,13 +4694,2746 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>25.31</v>
+      </c>
+      <c r="K2">
+        <v>25.07</v>
+      </c>
+      <c r="Q2">
+        <v>25.31</v>
+      </c>
+      <c r="R2">
+        <v>25.31</v>
+      </c>
+      <c r="AA2">
+        <f>AVERAGE(B2:Z2)</f>
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>25.38</v>
+      </c>
+      <c r="C3">
+        <v>25.88</v>
+      </c>
+      <c r="D3">
+        <v>25.08</v>
+      </c>
+      <c r="E3">
+        <v>26.16</v>
+      </c>
+      <c r="F3">
+        <v>25.01</v>
+      </c>
+      <c r="G3">
+        <v>25.56</v>
+      </c>
+      <c r="H3">
+        <v>26.37</v>
+      </c>
+      <c r="I3">
+        <v>26.25</v>
+      </c>
+      <c r="K3">
+        <v>25.74</v>
+      </c>
+      <c r="N3">
+        <v>25.71</v>
+      </c>
+      <c r="O3">
+        <v>25.61</v>
+      </c>
+      <c r="P3">
+        <v>25.42</v>
+      </c>
+      <c r="Q3">
+        <v>25.8</v>
+      </c>
+      <c r="R3">
+        <v>25.8</v>
+      </c>
+      <c r="S3">
+        <v>26.06</v>
+      </c>
+      <c r="T3">
+        <v>25.51</v>
+      </c>
+      <c r="V3">
+        <v>25.59</v>
+      </c>
+      <c r="Y3">
+        <v>25.7</v>
+      </c>
+      <c r="AA3">
+        <f>AVERAGE(B3:Z3)</f>
+        <v>25.701666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>25.04</v>
+      </c>
+      <c r="M4">
+        <v>25.09</v>
+      </c>
+      <c r="X4">
+        <v>25.52</v>
+      </c>
+      <c r="AA4">
+        <f>AVERAGE(B4:Z4)</f>
+        <v>25.216666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>26.01</v>
+      </c>
+      <c r="G5">
+        <v>25.3</v>
+      </c>
+      <c r="H5">
+        <v>26.2</v>
+      </c>
+      <c r="L5">
+        <v>26.48</v>
+      </c>
+      <c r="M5">
+        <v>25.76</v>
+      </c>
+      <c r="N5">
+        <v>26.64</v>
+      </c>
+      <c r="O5">
+        <v>27.03</v>
+      </c>
+      <c r="P5">
+        <v>25.24</v>
+      </c>
+      <c r="Q5">
+        <v>25.1</v>
+      </c>
+      <c r="R5">
+        <v>25.1</v>
+      </c>
+      <c r="S5">
+        <v>26.39</v>
+      </c>
+      <c r="T5">
+        <v>25.86</v>
+      </c>
+      <c r="U5">
+        <v>27.06</v>
+      </c>
+      <c r="W5">
+        <v>25.9</v>
+      </c>
+      <c r="X5">
+        <v>27.43</v>
+      </c>
+      <c r="Y5">
+        <v>25.82</v>
+      </c>
+      <c r="Z5">
+        <v>26.47</v>
+      </c>
+      <c r="AA5">
+        <f>AVERAGE(B5:Z5)</f>
+        <v>26.105294117647055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>25.72</v>
+      </c>
+      <c r="Z6">
+        <v>25.54</v>
+      </c>
+      <c r="AA6">
+        <f>AVERAGE(B6:Z6)</f>
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>27.18</v>
+      </c>
+      <c r="C7">
+        <v>26.04</v>
+      </c>
+      <c r="D7">
+        <v>28.68</v>
+      </c>
+      <c r="E7">
+        <v>27.87</v>
+      </c>
+      <c r="F7">
+        <v>27.34</v>
+      </c>
+      <c r="G7">
+        <v>27.75</v>
+      </c>
+      <c r="H7">
+        <v>28.84</v>
+      </c>
+      <c r="I7">
+        <v>26.09</v>
+      </c>
+      <c r="J7">
+        <v>26.89</v>
+      </c>
+      <c r="K7">
+        <v>26.04</v>
+      </c>
+      <c r="L7">
+        <v>26.93</v>
+      </c>
+      <c r="M7">
+        <v>26.45</v>
+      </c>
+      <c r="N7">
+        <v>27.82</v>
+      </c>
+      <c r="O7">
+        <v>26.57</v>
+      </c>
+      <c r="P7">
+        <v>26.84</v>
+      </c>
+      <c r="Q7">
+        <v>26.43</v>
+      </c>
+      <c r="R7">
+        <v>26.43</v>
+      </c>
+      <c r="S7">
+        <v>27.69</v>
+      </c>
+      <c r="T7">
+        <v>27.22</v>
+      </c>
+      <c r="U7">
+        <v>26.27</v>
+      </c>
+      <c r="V7">
+        <v>26.03</v>
+      </c>
+      <c r="W7">
+        <v>27.87</v>
+      </c>
+      <c r="X7">
+        <v>25.95</v>
+      </c>
+      <c r="Y7">
+        <v>27.51</v>
+      </c>
+      <c r="Z7">
+        <v>26.59</v>
+      </c>
+      <c r="AA7">
+        <f>AVERAGE(B7:Z7)</f>
+        <v>27.012800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>25.26</v>
+      </c>
+      <c r="F8">
+        <v>26.39</v>
+      </c>
+      <c r="J8">
+        <v>25.22</v>
+      </c>
+      <c r="K8">
+        <v>25.16</v>
+      </c>
+      <c r="T8">
+        <v>25.16</v>
+      </c>
+      <c r="X8">
+        <v>26.4</v>
+      </c>
+      <c r="AA8">
+        <f>AVERAGE(B8:Z8)</f>
+        <v>25.598333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>25.26</v>
+      </c>
+      <c r="D9">
+        <v>25.89</v>
+      </c>
+      <c r="E9">
+        <v>25.12</v>
+      </c>
+      <c r="H9">
+        <v>25.77</v>
+      </c>
+      <c r="I9">
+        <v>25.12</v>
+      </c>
+      <c r="L9">
+        <v>25.14</v>
+      </c>
+      <c r="M9">
+        <v>25.97</v>
+      </c>
+      <c r="P9">
+        <v>25.85</v>
+      </c>
+      <c r="X9">
+        <v>25.22</v>
+      </c>
+      <c r="AA9">
+        <f>AVERAGE(B9:Z9)</f>
+        <v>25.482222222222223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>25.17</v>
+      </c>
+      <c r="H10">
+        <v>25.68</v>
+      </c>
+      <c r="P10">
+        <v>25.04</v>
+      </c>
+      <c r="Q10">
+        <v>25.51</v>
+      </c>
+      <c r="R10">
+        <v>25.51</v>
+      </c>
+      <c r="S10">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>25.05</v>
+      </c>
+      <c r="X10">
+        <v>25.19</v>
+      </c>
+      <c r="Y10">
+        <v>26.11</v>
+      </c>
+      <c r="AA10">
+        <f>AVERAGE(B10:Z10)</f>
+        <v>25.47333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>26.05</v>
+      </c>
+      <c r="E11">
+        <v>25.36</v>
+      </c>
+      <c r="F11">
+        <v>26.15</v>
+      </c>
+      <c r="H11">
+        <v>25.78</v>
+      </c>
+      <c r="I11">
+        <v>25.54</v>
+      </c>
+      <c r="L11">
+        <v>25.09</v>
+      </c>
+      <c r="Q11">
+        <v>25.73</v>
+      </c>
+      <c r="R11">
+        <v>25.73</v>
+      </c>
+      <c r="V11">
+        <v>26.01</v>
+      </c>
+      <c r="X11">
+        <v>25.29</v>
+      </c>
+      <c r="AA11">
+        <f>AVERAGE(B11:Z11)</f>
+        <v>25.672999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>25.51</v>
+      </c>
+      <c r="C12">
+        <v>25.37</v>
+      </c>
+      <c r="H12">
+        <v>25.34</v>
+      </c>
+      <c r="N12">
+        <v>25.12</v>
+      </c>
+      <c r="T12">
+        <v>25.7</v>
+      </c>
+      <c r="AA12">
+        <f>AVERAGE(B12:Z12)</f>
+        <v>25.408000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>25.01</v>
+      </c>
+      <c r="P13">
+        <v>25.15</v>
+      </c>
+      <c r="AA13">
+        <f>AVERAGE(B13:Z13)</f>
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14">
+        <v>25.57</v>
+      </c>
+      <c r="AA14">
+        <f>AVERAGE(B14:Z14)</f>
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>25.96</v>
+      </c>
+      <c r="AA15">
+        <f>AVERAGE(B15:Z15)</f>
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>25.17</v>
+      </c>
+      <c r="AA16">
+        <f>AVERAGE(B16:Z16)</f>
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>26.71</v>
+      </c>
+      <c r="C17">
+        <v>28.15</v>
+      </c>
+      <c r="D17">
+        <v>28.83</v>
+      </c>
+      <c r="E17">
+        <v>26.81</v>
+      </c>
+      <c r="F17">
+        <v>28.46</v>
+      </c>
+      <c r="G17">
+        <v>27.13</v>
+      </c>
+      <c r="H17">
+        <v>27.67</v>
+      </c>
+      <c r="I17">
+        <v>26.55</v>
+      </c>
+      <c r="J17">
+        <v>28.36</v>
+      </c>
+      <c r="K17">
+        <v>27.41</v>
+      </c>
+      <c r="L17">
+        <v>28.64</v>
+      </c>
+      <c r="M17">
+        <v>28.43</v>
+      </c>
+      <c r="N17">
+        <v>27.23</v>
+      </c>
+      <c r="O17">
+        <v>27.7</v>
+      </c>
+      <c r="P17">
+        <v>28.92</v>
+      </c>
+      <c r="Q17">
+        <v>28.23</v>
+      </c>
+      <c r="R17">
+        <v>28.23</v>
+      </c>
+      <c r="S17">
+        <v>28.05</v>
+      </c>
+      <c r="T17">
+        <v>26.79</v>
+      </c>
+      <c r="U17">
+        <v>26.11</v>
+      </c>
+      <c r="V17">
+        <v>27.59</v>
+      </c>
+      <c r="W17">
+        <v>29.25</v>
+      </c>
+      <c r="X17">
+        <v>26.73</v>
+      </c>
+      <c r="Y17">
+        <v>27.61</v>
+      </c>
+      <c r="Z17">
+        <v>28.37</v>
+      </c>
+      <c r="AA17">
+        <f>AVERAGE(B17:Z17)</f>
+        <v>27.758400000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>28.16</v>
+      </c>
+      <c r="C18">
+        <v>28.64</v>
+      </c>
+      <c r="D18">
+        <v>26.49</v>
+      </c>
+      <c r="E18">
+        <v>26.91</v>
+      </c>
+      <c r="F18">
+        <v>27.46</v>
+      </c>
+      <c r="G18">
+        <v>26.31</v>
+      </c>
+      <c r="I18">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>25.42</v>
+      </c>
+      <c r="K18">
+        <v>26.39</v>
+      </c>
+      <c r="L18">
+        <v>28.05</v>
+      </c>
+      <c r="N18">
+        <v>25.78</v>
+      </c>
+      <c r="O18">
+        <v>26.38</v>
+      </c>
+      <c r="P18">
+        <v>26.84</v>
+      </c>
+      <c r="Q18">
+        <v>27.11</v>
+      </c>
+      <c r="R18">
+        <v>27.11</v>
+      </c>
+      <c r="S18">
+        <v>26.33</v>
+      </c>
+      <c r="T18">
+        <v>26.85</v>
+      </c>
+      <c r="U18">
+        <v>27.28</v>
+      </c>
+      <c r="V18">
+        <v>25.6</v>
+      </c>
+      <c r="W18">
+        <v>26.82</v>
+      </c>
+      <c r="X18">
+        <v>26.28</v>
+      </c>
+      <c r="Y18">
+        <v>25.04</v>
+      </c>
+      <c r="Z18">
+        <v>26.4</v>
+      </c>
+      <c r="AA18">
+        <f>AVERAGE(B18:Z18)</f>
+        <v>26.723913043478259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>26.18</v>
+      </c>
+      <c r="C19">
+        <v>25.52</v>
+      </c>
+      <c r="D19">
+        <v>25.1</v>
+      </c>
+      <c r="E19">
+        <v>26.49</v>
+      </c>
+      <c r="G19">
+        <v>25.86</v>
+      </c>
+      <c r="H19">
+        <v>25.34</v>
+      </c>
+      <c r="I19">
+        <v>25.77</v>
+      </c>
+      <c r="K19">
+        <v>26.32</v>
+      </c>
+      <c r="M19">
+        <v>25.01</v>
+      </c>
+      <c r="N19">
+        <v>25.93</v>
+      </c>
+      <c r="O19">
+        <v>25.77</v>
+      </c>
+      <c r="P19">
+        <v>25.47</v>
+      </c>
+      <c r="Q19">
+        <v>26.68</v>
+      </c>
+      <c r="R19">
+        <v>26.68</v>
+      </c>
+      <c r="T19">
+        <v>25.2</v>
+      </c>
+      <c r="U19">
+        <v>26.13</v>
+      </c>
+      <c r="V19">
+        <v>26.47</v>
+      </c>
+      <c r="W19">
+        <v>25.65</v>
+      </c>
+      <c r="X19">
+        <v>25.35</v>
+      </c>
+      <c r="Y19">
+        <v>26.42</v>
+      </c>
+      <c r="AA19">
+        <f>AVERAGE(B19:Z19)</f>
+        <v>25.866999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>27.1</v>
+      </c>
+      <c r="E20">
+        <v>26.59</v>
+      </c>
+      <c r="G20">
+        <v>27.25</v>
+      </c>
+      <c r="H20">
+        <v>25.09</v>
+      </c>
+      <c r="I20">
+        <v>26.25</v>
+      </c>
+      <c r="J20">
+        <v>26.1</v>
+      </c>
+      <c r="K20">
+        <v>25.53</v>
+      </c>
+      <c r="L20">
+        <v>26.48</v>
+      </c>
+      <c r="M20">
+        <v>25.23</v>
+      </c>
+      <c r="N20">
+        <v>25.42</v>
+      </c>
+      <c r="O20">
+        <v>25.83</v>
+      </c>
+      <c r="P20">
+        <v>26.04</v>
+      </c>
+      <c r="Q20">
+        <v>25.43</v>
+      </c>
+      <c r="R20">
+        <v>25.43</v>
+      </c>
+      <c r="S20">
+        <v>26.75</v>
+      </c>
+      <c r="T20">
+        <v>25.42</v>
+      </c>
+      <c r="U20">
+        <v>25.68</v>
+      </c>
+      <c r="W20">
+        <v>26.16</v>
+      </c>
+      <c r="X20">
+        <v>26.4</v>
+      </c>
+      <c r="AA20">
+        <f>AVERAGE(B20:Z20)</f>
+        <v>26.009473684210526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>25.91</v>
+      </c>
+      <c r="D21">
+        <v>25.61</v>
+      </c>
+      <c r="E21">
+        <v>26.58</v>
+      </c>
+      <c r="F21">
+        <v>26.74</v>
+      </c>
+      <c r="G21">
+        <v>25.91</v>
+      </c>
+      <c r="H21">
+        <v>25.05</v>
+      </c>
+      <c r="I21">
+        <v>25.03</v>
+      </c>
+      <c r="J21">
+        <v>26.38</v>
+      </c>
+      <c r="K21">
+        <v>25.18</v>
+      </c>
+      <c r="M21">
+        <v>25.18</v>
+      </c>
+      <c r="O21">
+        <v>26.07</v>
+      </c>
+      <c r="P21">
+        <v>25.16</v>
+      </c>
+      <c r="Q21">
+        <v>26.59</v>
+      </c>
+      <c r="R21">
+        <v>26.59</v>
+      </c>
+      <c r="U21">
+        <v>26.01</v>
+      </c>
+      <c r="V21">
+        <v>26.36</v>
+      </c>
+      <c r="X21">
+        <v>25.46</v>
+      </c>
+      <c r="AA21">
+        <f>AVERAGE(B21:Z21)</f>
+        <v>25.871176470588232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>25.41</v>
+      </c>
+      <c r="C22">
+        <v>25.63</v>
+      </c>
+      <c r="G22">
+        <v>25.33</v>
+      </c>
+      <c r="H22">
+        <v>25.07</v>
+      </c>
+      <c r="L22">
+        <v>26.28</v>
+      </c>
+      <c r="N22">
+        <v>25.11</v>
+      </c>
+      <c r="P22">
+        <v>25.87</v>
+      </c>
+      <c r="Q22">
+        <v>26.23</v>
+      </c>
+      <c r="R22">
+        <v>26.23</v>
+      </c>
+      <c r="S22">
+        <v>27.09</v>
+      </c>
+      <c r="U22">
+        <v>25.54</v>
+      </c>
+      <c r="V22">
+        <v>25.32</v>
+      </c>
+      <c r="W22">
+        <v>25.27</v>
+      </c>
+      <c r="X22">
+        <v>25.01</v>
+      </c>
+      <c r="Y22">
+        <v>25.53</v>
+      </c>
+      <c r="Z22">
+        <v>25.92</v>
+      </c>
+      <c r="AA22">
+        <f>AVERAGE(B22:Z22)</f>
+        <v>25.677499999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>25.55</v>
+      </c>
+      <c r="D23">
+        <v>26.46</v>
+      </c>
+      <c r="E23">
+        <v>25.97</v>
+      </c>
+      <c r="F23">
+        <v>25.95</v>
+      </c>
+      <c r="G23">
+        <v>25.81</v>
+      </c>
+      <c r="H23">
+        <v>25.76</v>
+      </c>
+      <c r="I23">
+        <v>26.3</v>
+      </c>
+      <c r="J23">
+        <v>26.6</v>
+      </c>
+      <c r="L23">
+        <v>25.12</v>
+      </c>
+      <c r="N23">
+        <v>26.77</v>
+      </c>
+      <c r="P23">
+        <v>27.1</v>
+      </c>
+      <c r="Q23">
+        <v>26.68</v>
+      </c>
+      <c r="R23">
+        <v>26.68</v>
+      </c>
+      <c r="T23">
+        <v>25.17</v>
+      </c>
+      <c r="V23">
+        <v>27.02</v>
+      </c>
+      <c r="W23">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>25.55</v>
+      </c>
+      <c r="Y23">
+        <v>26.23</v>
+      </c>
+      <c r="Z23">
+        <v>26.4</v>
+      </c>
+      <c r="AA23">
+        <f>AVERAGE(B23:Z23)</f>
+        <v>26.164210526315792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>25.25</v>
+      </c>
+      <c r="C24">
+        <v>25.11</v>
+      </c>
+      <c r="D24">
+        <v>25.2</v>
+      </c>
+      <c r="E24">
+        <v>25.96</v>
+      </c>
+      <c r="F24">
+        <v>25.21</v>
+      </c>
+      <c r="H24">
+        <v>25.28</v>
+      </c>
+      <c r="J24">
+        <v>25.26</v>
+      </c>
+      <c r="N24">
+        <v>25.42</v>
+      </c>
+      <c r="P24">
+        <v>25.82</v>
+      </c>
+      <c r="Q24">
+        <v>25.08</v>
+      </c>
+      <c r="R24">
+        <v>25.08</v>
+      </c>
+      <c r="S24">
+        <v>25.07</v>
+      </c>
+      <c r="T24">
+        <v>25.23</v>
+      </c>
+      <c r="V24">
+        <v>25.08</v>
+      </c>
+      <c r="X24">
+        <v>25.41</v>
+      </c>
+      <c r="AA24">
+        <f>AVERAGE(B24:Z24)</f>
+        <v>25.297333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>25.63</v>
+      </c>
+      <c r="D25">
+        <v>25.11</v>
+      </c>
+      <c r="E25">
+        <v>25.04</v>
+      </c>
+      <c r="I25">
+        <v>25.25</v>
+      </c>
+      <c r="J25">
+        <v>25.11</v>
+      </c>
+      <c r="K25">
+        <v>25.17</v>
+      </c>
+      <c r="L25">
+        <v>25.12</v>
+      </c>
+      <c r="N25">
+        <v>25.29</v>
+      </c>
+      <c r="O25">
+        <v>25.08</v>
+      </c>
+      <c r="S25">
+        <v>25.21</v>
+      </c>
+      <c r="AA25">
+        <f>AVERAGE(B25:Z25)</f>
+        <v>25.201000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>25.1</v>
+      </c>
+      <c r="C26">
+        <v>25.38</v>
+      </c>
+      <c r="E26">
+        <v>25.42</v>
+      </c>
+      <c r="F26">
+        <v>25.3</v>
+      </c>
+      <c r="H26">
+        <v>25.09</v>
+      </c>
+      <c r="I26">
+        <v>25.31</v>
+      </c>
+      <c r="K26">
+        <v>25.07</v>
+      </c>
+      <c r="M26">
+        <v>25.07</v>
+      </c>
+      <c r="O26">
+        <v>25.27</v>
+      </c>
+      <c r="P26">
+        <v>25.16</v>
+      </c>
+      <c r="V26">
+        <v>25.07</v>
+      </c>
+      <c r="Y26">
+        <v>25.46</v>
+      </c>
+      <c r="Z26">
+        <v>25.05</v>
+      </c>
+      <c r="AA26">
+        <f>AVERAGE(B26:Z26)</f>
+        <v>25.21153846153846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>25.05</v>
+      </c>
+      <c r="E27">
+        <v>25.05</v>
+      </c>
+      <c r="X27">
+        <v>25.27</v>
+      </c>
+      <c r="AA27">
+        <f>AVERAGE(B27:Z27)</f>
+        <v>25.123333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>25.26</v>
+      </c>
+      <c r="J28">
+        <v>25.01</v>
+      </c>
+      <c r="P28">
+        <v>25.16</v>
+      </c>
+      <c r="AA28">
+        <f>AVERAGE(B28:Z28)</f>
+        <v>25.143333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>25.21</v>
+      </c>
+      <c r="F29">
+        <v>25.16</v>
+      </c>
+      <c r="H29">
+        <v>25.01</v>
+      </c>
+      <c r="J29">
+        <v>25.35</v>
+      </c>
+      <c r="N29">
+        <v>25.21</v>
+      </c>
+      <c r="O29">
+        <v>25.18</v>
+      </c>
+      <c r="S29">
+        <v>25.28</v>
+      </c>
+      <c r="T29">
+        <v>25.26</v>
+      </c>
+      <c r="Y29">
+        <v>25.43</v>
+      </c>
+      <c r="Z29">
+        <v>25.13</v>
+      </c>
+      <c r="AA29">
+        <f>AVERAGE(B29:Z29)</f>
+        <v>25.222000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>25.03</v>
+      </c>
+      <c r="G30">
+        <v>25.11</v>
+      </c>
+      <c r="J30">
+        <v>25.34</v>
+      </c>
+      <c r="K30">
+        <v>25.03</v>
+      </c>
+      <c r="O30">
+        <v>25.33</v>
+      </c>
+      <c r="U30">
+        <v>25.04</v>
+      </c>
+      <c r="W30">
+        <v>25.13</v>
+      </c>
+      <c r="Y30">
+        <v>25.09</v>
+      </c>
+      <c r="AA30">
+        <f>AVERAGE(B30:Z30)</f>
+        <v>25.137499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31">
+        <v>25.04</v>
+      </c>
+      <c r="AA31">
+        <f>AVERAGE(B31:Z31)</f>
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>28.12</v>
+      </c>
+      <c r="C32">
+        <v>27.23</v>
+      </c>
+      <c r="D32">
+        <v>28.63</v>
+      </c>
+      <c r="E32">
+        <v>27.65</v>
+      </c>
+      <c r="F32">
+        <v>28.05</v>
+      </c>
+      <c r="G32">
+        <v>27.02</v>
+      </c>
+      <c r="H32">
+        <v>28.64</v>
+      </c>
+      <c r="I32">
+        <v>27.29</v>
+      </c>
+      <c r="J32">
+        <v>28.75</v>
+      </c>
+      <c r="K32">
+        <v>27.63</v>
+      </c>
+      <c r="L32">
+        <v>27.02</v>
+      </c>
+      <c r="M32">
+        <v>27.45</v>
+      </c>
+      <c r="N32">
+        <v>28.46</v>
+      </c>
+      <c r="O32">
+        <v>27.97</v>
+      </c>
+      <c r="P32">
+        <v>28.18</v>
+      </c>
+      <c r="Q32">
+        <v>28.07</v>
+      </c>
+      <c r="R32">
+        <v>28.07</v>
+      </c>
+      <c r="S32">
+        <v>27.52</v>
+      </c>
+      <c r="T32">
+        <v>28.1</v>
+      </c>
+      <c r="U32">
+        <v>27.07</v>
+      </c>
+      <c r="V32">
+        <v>28.44</v>
+      </c>
+      <c r="W32">
+        <v>27.78</v>
+      </c>
+      <c r="X32">
+        <v>28.17</v>
+      </c>
+      <c r="Y32">
+        <v>27.54</v>
+      </c>
+      <c r="Z32">
+        <v>27.56</v>
+      </c>
+      <c r="AA32">
+        <f>AVERAGE(B32:Z32)</f>
+        <v>27.856399999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>25.77</v>
+      </c>
+      <c r="C33">
+        <v>25.95</v>
+      </c>
+      <c r="D33">
+        <v>26.18</v>
+      </c>
+      <c r="E33">
+        <v>25.21</v>
+      </c>
+      <c r="F33">
+        <v>25.64</v>
+      </c>
+      <c r="G33">
+        <v>26.03</v>
+      </c>
+      <c r="H33">
+        <v>25.64</v>
+      </c>
+      <c r="I33">
+        <v>25.67</v>
+      </c>
+      <c r="J33">
+        <v>25.98</v>
+      </c>
+      <c r="K33">
+        <v>26.22</v>
+      </c>
+      <c r="L33">
+        <v>25.65</v>
+      </c>
+      <c r="M33">
+        <v>25.74</v>
+      </c>
+      <c r="N33">
+        <v>25.68</v>
+      </c>
+      <c r="O33">
+        <v>25.61</v>
+      </c>
+      <c r="P33">
+        <v>26.22</v>
+      </c>
+      <c r="Q33">
+        <v>26.31</v>
+      </c>
+      <c r="R33">
+        <v>26.31</v>
+      </c>
+      <c r="S33">
+        <v>25.35</v>
+      </c>
+      <c r="T33">
+        <v>25.08</v>
+      </c>
+      <c r="U33">
+        <v>25.12</v>
+      </c>
+      <c r="V33">
+        <v>25.36</v>
+      </c>
+      <c r="W33">
+        <v>25.92</v>
+      </c>
+      <c r="X33">
+        <v>25.02</v>
+      </c>
+      <c r="Y33">
+        <v>25.11</v>
+      </c>
+      <c r="Z33">
+        <v>26.44</v>
+      </c>
+      <c r="AA33">
+        <f>AVERAGE(B33:Z33)</f>
+        <v>25.728400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>25.38</v>
+      </c>
+      <c r="D34">
+        <v>25.71</v>
+      </c>
+      <c r="E34">
+        <v>25.46</v>
+      </c>
+      <c r="F34">
+        <v>25.01</v>
+      </c>
+      <c r="G34">
+        <v>25.67</v>
+      </c>
+      <c r="H34">
+        <v>25.37</v>
+      </c>
+      <c r="I34">
+        <v>25.62</v>
+      </c>
+      <c r="J34">
+        <v>25.35</v>
+      </c>
+      <c r="K34">
+        <v>25.23</v>
+      </c>
+      <c r="L34">
+        <v>25.57</v>
+      </c>
+      <c r="M34">
+        <v>25.53</v>
+      </c>
+      <c r="N34">
+        <v>25.8</v>
+      </c>
+      <c r="O34">
+        <v>25.03</v>
+      </c>
+      <c r="P34">
+        <v>25.59</v>
+      </c>
+      <c r="Q34">
+        <v>25.83</v>
+      </c>
+      <c r="R34">
+        <v>25.83</v>
+      </c>
+      <c r="S34">
+        <v>25.52</v>
+      </c>
+      <c r="T34">
+        <v>25.34</v>
+      </c>
+      <c r="U34">
+        <v>25.41</v>
+      </c>
+      <c r="V34">
+        <v>25.94</v>
+      </c>
+      <c r="W34">
+        <v>25.1</v>
+      </c>
+      <c r="X34">
+        <v>25.15</v>
+      </c>
+      <c r="Z34">
+        <v>25.77</v>
+      </c>
+      <c r="AA34">
+        <f>AVERAGE(B34:Z34)</f>
+        <v>25.487391304347824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>25.62</v>
+      </c>
+      <c r="C35">
+        <v>26.51</v>
+      </c>
+      <c r="D35">
+        <v>26.03</v>
+      </c>
+      <c r="E35">
+        <v>25.92</v>
+      </c>
+      <c r="F35">
+        <v>25.27</v>
+      </c>
+      <c r="G35">
+        <v>25.75</v>
+      </c>
+      <c r="H35">
+        <v>25.79</v>
+      </c>
+      <c r="J35">
+        <v>25.61</v>
+      </c>
+      <c r="K35">
+        <v>25.38</v>
+      </c>
+      <c r="L35">
+        <v>25.78</v>
+      </c>
+      <c r="M35">
+        <v>26.01</v>
+      </c>
+      <c r="N35">
+        <v>26.05</v>
+      </c>
+      <c r="O35">
+        <v>25.71</v>
+      </c>
+      <c r="P35">
+        <v>26.49</v>
+      </c>
+      <c r="Q35">
+        <v>25.64</v>
+      </c>
+      <c r="R35">
+        <v>25.64</v>
+      </c>
+      <c r="S35">
+        <v>25.28</v>
+      </c>
+      <c r="T35">
+        <v>25.44</v>
+      </c>
+      <c r="U35">
+        <v>25.52</v>
+      </c>
+      <c r="V35">
+        <v>25.89</v>
+      </c>
+      <c r="W35">
+        <v>25.84</v>
+      </c>
+      <c r="X35">
+        <v>25.68</v>
+      </c>
+      <c r="Y35">
+        <v>25.76</v>
+      </c>
+      <c r="Z35">
+        <v>25.36</v>
+      </c>
+      <c r="AA35">
+        <f>AVERAGE(B35:Z35)</f>
+        <v>25.748749999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>26.52</v>
+      </c>
+      <c r="C36">
+        <v>25.76</v>
+      </c>
+      <c r="D36">
+        <v>25.54</v>
+      </c>
+      <c r="E36">
+        <v>26.14</v>
+      </c>
+      <c r="F36">
+        <v>26.07</v>
+      </c>
+      <c r="G36">
+        <v>26.12</v>
+      </c>
+      <c r="H36">
+        <v>25.07</v>
+      </c>
+      <c r="I36">
+        <v>25.7</v>
+      </c>
+      <c r="J36">
+        <v>26.62</v>
+      </c>
+      <c r="K36">
+        <v>25.65</v>
+      </c>
+      <c r="L36">
+        <v>25.39</v>
+      </c>
+      <c r="M36">
+        <v>25.89</v>
+      </c>
+      <c r="N36">
+        <v>25.69</v>
+      </c>
+      <c r="O36">
+        <v>26.03</v>
+      </c>
+      <c r="P36">
+        <v>26.22</v>
+      </c>
+      <c r="Q36">
+        <v>26.1</v>
+      </c>
+      <c r="R36">
+        <v>26.1</v>
+      </c>
+      <c r="S36">
+        <v>25.68</v>
+      </c>
+      <c r="T36">
+        <v>25.83</v>
+      </c>
+      <c r="U36">
+        <v>25.71</v>
+      </c>
+      <c r="V36">
+        <v>26.27</v>
+      </c>
+      <c r="W36">
+        <v>25.77</v>
+      </c>
+      <c r="X36">
+        <v>25.61</v>
+      </c>
+      <c r="Y36">
+        <v>25.96</v>
+      </c>
+      <c r="Z36">
+        <v>25.52</v>
+      </c>
+      <c r="AA36">
+        <f>AVERAGE(B36:Z36)</f>
+        <v>25.878400000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>26.01</v>
+      </c>
+      <c r="C37">
+        <v>25.91</v>
+      </c>
+      <c r="D37">
+        <v>26.14</v>
+      </c>
+      <c r="E37">
+        <v>25.45</v>
+      </c>
+      <c r="F37">
+        <v>25.96</v>
+      </c>
+      <c r="G37">
+        <v>25.63</v>
+      </c>
+      <c r="H37">
+        <v>25.98</v>
+      </c>
+      <c r="I37">
+        <v>26.05</v>
+      </c>
+      <c r="J37">
+        <v>26.13</v>
+      </c>
+      <c r="K37">
+        <v>25.51</v>
+      </c>
+      <c r="L37">
+        <v>25.08</v>
+      </c>
+      <c r="M37">
+        <v>26.04</v>
+      </c>
+      <c r="N37">
+        <v>25.85</v>
+      </c>
+      <c r="O37">
+        <v>25.88</v>
+      </c>
+      <c r="P37">
+        <v>26.57</v>
+      </c>
+      <c r="Q37">
+        <v>25.77</v>
+      </c>
+      <c r="R37">
+        <v>25.77</v>
+      </c>
+      <c r="S37">
+        <v>25.72</v>
+      </c>
+      <c r="T37">
+        <v>25.38</v>
+      </c>
+      <c r="U37">
+        <v>26.18</v>
+      </c>
+      <c r="V37">
+        <v>25.91</v>
+      </c>
+      <c r="W37">
+        <v>25.88</v>
+      </c>
+      <c r="X37">
+        <v>25.49</v>
+      </c>
+      <c r="Y37">
+        <v>25.23</v>
+      </c>
+      <c r="Z37">
+        <v>26.56</v>
+      </c>
+      <c r="AA37">
+        <f>AVERAGE(B37:Z37)</f>
+        <v>25.843199999999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>26.3</v>
+      </c>
+      <c r="C38">
+        <v>26.64</v>
+      </c>
+      <c r="D38">
+        <v>26.28</v>
+      </c>
+      <c r="E38">
+        <v>26.06</v>
+      </c>
+      <c r="F38">
+        <v>26.01</v>
+      </c>
+      <c r="G38">
+        <v>26.52</v>
+      </c>
+      <c r="H38">
+        <v>26.39</v>
+      </c>
+      <c r="I38">
+        <v>26.75</v>
+      </c>
+      <c r="J38">
+        <v>26.57</v>
+      </c>
+      <c r="K38">
+        <v>26.5</v>
+      </c>
+      <c r="L38">
+        <v>26.72</v>
+      </c>
+      <c r="M38">
+        <v>26.01</v>
+      </c>
+      <c r="N38">
+        <v>26.24</v>
+      </c>
+      <c r="O38">
+        <v>26.06</v>
+      </c>
+      <c r="P38">
+        <v>26.63</v>
+      </c>
+      <c r="Q38">
+        <v>26.58</v>
+      </c>
+      <c r="R38">
+        <v>26.58</v>
+      </c>
+      <c r="S38">
+        <v>26.28</v>
+      </c>
+      <c r="T38">
+        <v>26.29</v>
+      </c>
+      <c r="U38">
+        <v>26.27</v>
+      </c>
+      <c r="V38">
+        <v>26.49</v>
+      </c>
+      <c r="W38">
+        <v>26.66</v>
+      </c>
+      <c r="X38">
+        <v>26.54</v>
+      </c>
+      <c r="Y38">
+        <v>25.89</v>
+      </c>
+      <c r="Z38">
+        <v>26.89</v>
+      </c>
+      <c r="AA38">
+        <f>AVERAGE(B38:Z38)</f>
+        <v>26.405999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>26.6</v>
+      </c>
+      <c r="C39">
+        <v>26.15</v>
+      </c>
+      <c r="D39">
+        <v>26.54</v>
+      </c>
+      <c r="E39">
+        <v>27.46</v>
+      </c>
+      <c r="F39">
+        <v>26.41</v>
+      </c>
+      <c r="G39">
+        <v>26.92</v>
+      </c>
+      <c r="H39">
+        <v>27.11</v>
+      </c>
+      <c r="I39">
+        <v>26.71</v>
+      </c>
+      <c r="J39">
+        <v>27.51</v>
+      </c>
+      <c r="K39">
+        <v>26.57</v>
+      </c>
+      <c r="L39">
+        <v>27.43</v>
+      </c>
+      <c r="M39">
+        <v>26.65</v>
+      </c>
+      <c r="N39">
+        <v>25.9</v>
+      </c>
+      <c r="O39">
+        <v>27.29</v>
+      </c>
+      <c r="P39">
+        <v>26.77</v>
+      </c>
+      <c r="Q39">
+        <v>26.85</v>
+      </c>
+      <c r="R39">
+        <v>26.85</v>
+      </c>
+      <c r="S39">
+        <v>26.99</v>
+      </c>
+      <c r="T39">
+        <v>26.49</v>
+      </c>
+      <c r="U39">
+        <v>26.66</v>
+      </c>
+      <c r="V39">
+        <v>26.88</v>
+      </c>
+      <c r="W39">
+        <v>26.65</v>
+      </c>
+      <c r="X39">
+        <v>26.6</v>
+      </c>
+      <c r="Y39">
+        <v>26.84</v>
+      </c>
+      <c r="Z39">
+        <v>27.03</v>
+      </c>
+      <c r="AA39">
+        <f>AVERAGE(B39:Z39)</f>
+        <v>26.7944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>25.33</v>
+      </c>
+      <c r="F40">
+        <v>25.28</v>
+      </c>
+      <c r="G40">
+        <v>25.55</v>
+      </c>
+      <c r="I40">
+        <v>25.23</v>
+      </c>
+      <c r="J40">
+        <v>25.11</v>
+      </c>
+      <c r="L40">
+        <v>25.13</v>
+      </c>
+      <c r="M40">
+        <v>25.35</v>
+      </c>
+      <c r="N40">
+        <v>25.23</v>
+      </c>
+      <c r="O40">
+        <v>25.33</v>
+      </c>
+      <c r="P40">
+        <v>25.1</v>
+      </c>
+      <c r="S40">
+        <v>25.46</v>
+      </c>
+      <c r="T40">
+        <v>25.12</v>
+      </c>
+      <c r="U40">
+        <v>25.12</v>
+      </c>
+      <c r="W40">
+        <v>25.13</v>
+      </c>
+      <c r="X40">
+        <v>25.2</v>
+      </c>
+      <c r="Y40">
+        <v>25.3</v>
+      </c>
+      <c r="Z40">
+        <v>25.21</v>
+      </c>
+      <c r="AA40">
+        <f>AVERAGE(B40:Z40)</f>
+        <v>25.245882352941173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>25.15</v>
+      </c>
+      <c r="J41">
+        <v>25.17</v>
+      </c>
+      <c r="S41">
+        <v>25.65</v>
+      </c>
+      <c r="AA41">
+        <f>AVERAGE(B41:Z41)</f>
+        <v>25.323333333333334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>25.53</v>
+      </c>
+      <c r="G42">
+        <v>25.23</v>
+      </c>
+      <c r="O42">
+        <v>25.42</v>
+      </c>
+      <c r="S42">
+        <v>25.09</v>
+      </c>
+      <c r="Y42">
+        <v>25.25</v>
+      </c>
+      <c r="AA42">
+        <f>AVERAGE(B42:Z42)</f>
+        <v>25.304000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>25.02</v>
+      </c>
+      <c r="D43">
+        <v>25.21</v>
+      </c>
+      <c r="E43">
+        <v>25.38</v>
+      </c>
+      <c r="F43">
+        <v>25.51</v>
+      </c>
+      <c r="I43">
+        <v>25.41</v>
+      </c>
+      <c r="J43">
+        <v>25.12</v>
+      </c>
+      <c r="L43">
+        <v>25.06</v>
+      </c>
+      <c r="M43">
+        <v>25.13</v>
+      </c>
+      <c r="S43">
+        <v>25.31</v>
+      </c>
+      <c r="AA43">
+        <f>AVERAGE(B43:Z43)</f>
+        <v>25.238888888888891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>25.02</v>
+      </c>
+      <c r="E44">
+        <v>25.19</v>
+      </c>
+      <c r="J44">
+        <v>25.22</v>
+      </c>
+      <c r="L44">
+        <v>25.31</v>
+      </c>
+      <c r="O44">
+        <v>25.13</v>
+      </c>
+      <c r="P44">
+        <v>25.42</v>
+      </c>
+      <c r="S44">
+        <v>25.24</v>
+      </c>
+      <c r="Z44">
+        <v>25.27</v>
+      </c>
+      <c r="AA44">
+        <f>AVERAGE(B44:Z44)</f>
+        <v>25.225000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <v>25.37</v>
+      </c>
+      <c r="AA45">
+        <f>AVERAGE(B45:Z45)</f>
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>26.76</v>
+      </c>
+      <c r="C46">
+        <v>26.49</v>
+      </c>
+      <c r="D46">
+        <v>26.32</v>
+      </c>
+      <c r="E46">
+        <v>25.78</v>
+      </c>
+      <c r="F46">
+        <v>26.43</v>
+      </c>
+      <c r="G46">
+        <v>26.59</v>
+      </c>
+      <c r="H46">
+        <v>25.54</v>
+      </c>
+      <c r="I46">
+        <v>26.66</v>
+      </c>
+      <c r="J46">
+        <v>25.83</v>
+      </c>
+      <c r="K46">
+        <v>26.36</v>
+      </c>
+      <c r="L46">
+        <v>26.17</v>
+      </c>
+      <c r="M46">
+        <v>26.03</v>
+      </c>
+      <c r="N46">
+        <v>26.38</v>
+      </c>
+      <c r="O46">
+        <v>26.07</v>
+      </c>
+      <c r="P46">
+        <v>26.84</v>
+      </c>
+      <c r="Q46">
+        <v>26.33</v>
+      </c>
+      <c r="R46">
+        <v>26.33</v>
+      </c>
+      <c r="S46">
+        <v>26.54</v>
+      </c>
+      <c r="T46">
+        <v>25.92</v>
+      </c>
+      <c r="U46">
+        <v>26.22</v>
+      </c>
+      <c r="V46">
+        <v>26.39</v>
+      </c>
+      <c r="W46">
+        <v>26.25</v>
+      </c>
+      <c r="X46">
+        <v>26.39</v>
+      </c>
+      <c r="Y46">
+        <v>25.78</v>
+      </c>
+      <c r="Z46">
+        <v>26.83</v>
+      </c>
+      <c r="AA46">
+        <f>AVERAGE(B46:Z46)</f>
+        <v>26.289200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>25.63</v>
+      </c>
+      <c r="C47">
+        <v>25.13</v>
+      </c>
+      <c r="D47">
+        <v>25.36</v>
+      </c>
+      <c r="E47">
+        <v>25.44</v>
+      </c>
+      <c r="G47">
+        <v>25.59</v>
+      </c>
+      <c r="H47">
+        <v>25.72</v>
+      </c>
+      <c r="I47">
+        <v>25.12</v>
+      </c>
+      <c r="J47">
+        <v>25.81</v>
+      </c>
+      <c r="L47">
+        <v>25.41</v>
+      </c>
+      <c r="M47">
+        <v>25.4</v>
+      </c>
+      <c r="N47">
+        <v>26.1</v>
+      </c>
+      <c r="O47">
+        <v>25.24</v>
+      </c>
+      <c r="P47">
+        <v>26.18</v>
+      </c>
+      <c r="Q47">
+        <v>25.7</v>
+      </c>
+      <c r="R47">
+        <v>25.7</v>
+      </c>
+      <c r="S47">
+        <v>25.59</v>
+      </c>
+      <c r="T47">
+        <v>25.41</v>
+      </c>
+      <c r="U47">
+        <v>25.01</v>
+      </c>
+      <c r="V47">
+        <v>26.47</v>
+      </c>
+      <c r="W47">
+        <v>25.1</v>
+      </c>
+      <c r="X47">
+        <v>25.13</v>
+      </c>
+      <c r="Y47">
+        <v>26.04</v>
+      </c>
+      <c r="Z47">
+        <v>26.32</v>
+      </c>
+      <c r="AA47">
+        <f>AVERAGE(B47:Z47)</f>
+        <v>25.591304347826089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>26.39</v>
+      </c>
+      <c r="C48">
+        <v>26.22</v>
+      </c>
+      <c r="D48">
+        <v>26.61</v>
+      </c>
+      <c r="E48">
+        <v>26.58</v>
+      </c>
+      <c r="F48">
+        <v>26.22</v>
+      </c>
+      <c r="G48">
+        <v>26.26</v>
+      </c>
+      <c r="H48">
+        <v>25.69</v>
+      </c>
+      <c r="I48">
+        <v>26.36</v>
+      </c>
+      <c r="J48">
+        <v>26.14</v>
+      </c>
+      <c r="K48">
+        <v>26.41</v>
+      </c>
+      <c r="L48">
+        <v>25.68</v>
+      </c>
+      <c r="M48">
+        <v>25.67</v>
+      </c>
+      <c r="N48">
+        <v>26.85</v>
+      </c>
+      <c r="O48">
+        <v>26.76</v>
+      </c>
+      <c r="P48">
+        <v>26.93</v>
+      </c>
+      <c r="Q48">
+        <v>26.18</v>
+      </c>
+      <c r="R48">
+        <v>26.18</v>
+      </c>
+      <c r="S48">
+        <v>25.88</v>
+      </c>
+      <c r="T48">
+        <v>26.29</v>
+      </c>
+      <c r="U48">
+        <v>25.76</v>
+      </c>
+      <c r="V48">
+        <v>25.81</v>
+      </c>
+      <c r="W48">
+        <v>26.57</v>
+      </c>
+      <c r="X48">
+        <v>26.1</v>
+      </c>
+      <c r="Y48">
+        <v>26.28</v>
+      </c>
+      <c r="Z48">
+        <v>26.31</v>
+      </c>
+      <c r="AA48">
+        <f>AVERAGE(B48:Z48)</f>
+        <v>26.245200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>25.34</v>
+      </c>
+      <c r="C49">
+        <v>25.44</v>
+      </c>
+      <c r="D49">
+        <v>26.26</v>
+      </c>
+      <c r="E49">
+        <v>25.57</v>
+      </c>
+      <c r="F49">
+        <v>25.76</v>
+      </c>
+      <c r="G49">
+        <v>26.2</v>
+      </c>
+      <c r="H49">
+        <v>26.13</v>
+      </c>
+      <c r="I49">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>25.52</v>
+      </c>
+      <c r="L49">
+        <v>25.56</v>
+      </c>
+      <c r="M49">
+        <v>25.21</v>
+      </c>
+      <c r="N49">
+        <v>25.82</v>
+      </c>
+      <c r="O49">
+        <v>25.29</v>
+      </c>
+      <c r="P49">
+        <v>25.98</v>
+      </c>
+      <c r="Q49">
+        <v>25.22</v>
+      </c>
+      <c r="R49">
+        <v>25.22</v>
+      </c>
+      <c r="S49">
+        <v>26.08</v>
+      </c>
+      <c r="T49">
+        <v>25.33</v>
+      </c>
+      <c r="U49">
+        <v>25.21</v>
+      </c>
+      <c r="V49">
+        <v>26.5</v>
+      </c>
+      <c r="X49">
+        <v>25.77</v>
+      </c>
+      <c r="Y49">
+        <v>25.58</v>
+      </c>
+      <c r="Z49">
+        <v>26.02</v>
+      </c>
+      <c r="AA49">
+        <f>AVERAGE(B49:Z49)</f>
+        <v>25.696086956521732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>25.13</v>
+      </c>
+      <c r="C50">
+        <v>25.32</v>
+      </c>
+      <c r="D50">
+        <v>25.41</v>
+      </c>
+      <c r="E50">
+        <v>25.36</v>
+      </c>
+      <c r="F50">
+        <v>25.18</v>
+      </c>
+      <c r="G50">
+        <v>25.55</v>
+      </c>
+      <c r="H50">
+        <v>25.79</v>
+      </c>
+      <c r="I50">
+        <v>25.57</v>
+      </c>
+      <c r="J50">
+        <v>25.34</v>
+      </c>
+      <c r="K50">
+        <v>25.74</v>
+      </c>
+      <c r="L50">
+        <v>25.83</v>
+      </c>
+      <c r="M50">
+        <v>25.67</v>
+      </c>
+      <c r="N50">
+        <v>26.17</v>
+      </c>
+      <c r="O50">
+        <v>25.33</v>
+      </c>
+      <c r="P50">
+        <v>26.14</v>
+      </c>
+      <c r="Q50">
+        <v>25.89</v>
+      </c>
+      <c r="R50">
+        <v>25.89</v>
+      </c>
+      <c r="S50">
+        <v>25.17</v>
+      </c>
+      <c r="T50">
+        <v>25.26</v>
+      </c>
+      <c r="U50">
+        <v>25.67</v>
+      </c>
+      <c r="V50">
+        <v>25.62</v>
+      </c>
+      <c r="W50">
+        <v>25.5</v>
+      </c>
+      <c r="X50">
+        <v>25.58</v>
+      </c>
+      <c r="Y50">
+        <v>25.06</v>
+      </c>
+      <c r="Z50">
+        <v>26.4</v>
+      </c>
+      <c r="AA50">
+        <f>AVERAGE(B50:Z50)</f>
+        <v>25.582799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>25.67</v>
+      </c>
+      <c r="C51">
+        <v>25.35</v>
+      </c>
+      <c r="D51">
+        <v>26.01</v>
+      </c>
+      <c r="E51">
+        <v>26.06</v>
+      </c>
+      <c r="F51">
+        <v>26.18</v>
+      </c>
+      <c r="G51">
+        <v>25.55</v>
+      </c>
+      <c r="H51">
+        <v>25.82</v>
+      </c>
+      <c r="I51">
+        <v>25.72</v>
+      </c>
+      <c r="J51">
+        <v>25.8</v>
+      </c>
+      <c r="K51">
+        <v>25.51</v>
+      </c>
+      <c r="L51">
+        <v>25.63</v>
+      </c>
+      <c r="M51">
+        <v>25.42</v>
+      </c>
+      <c r="N51">
+        <v>26.31</v>
+      </c>
+      <c r="O51">
+        <v>25.6</v>
+      </c>
+      <c r="P51">
+        <v>26.03</v>
+      </c>
+      <c r="Q51">
+        <v>26.42</v>
+      </c>
+      <c r="R51">
+        <v>26.42</v>
+      </c>
+      <c r="S51">
+        <v>25.76</v>
+      </c>
+      <c r="T51">
+        <v>26.25</v>
+      </c>
+      <c r="U51">
+        <v>25.61</v>
+      </c>
+      <c r="V51">
+        <v>26.18</v>
+      </c>
+      <c r="W51">
+        <v>25.49</v>
+      </c>
+      <c r="X51">
+        <v>25.58</v>
+      </c>
+      <c r="Y51">
+        <v>25.78</v>
+      </c>
+      <c r="Z51">
+        <v>26.16</v>
+      </c>
+      <c r="AA51">
+        <f>AVERAGE(B51:Z51)</f>
+        <v>25.852400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>25.32</v>
+      </c>
+      <c r="C52">
+        <v>25.49</v>
+      </c>
+      <c r="D52">
+        <v>26.23</v>
+      </c>
+      <c r="E52">
+        <v>25.55</v>
+      </c>
+      <c r="F52">
+        <v>25.57</v>
+      </c>
+      <c r="G52">
+        <v>26.26</v>
+      </c>
+      <c r="H52">
+        <v>25.87</v>
+      </c>
+      <c r="I52">
+        <v>26.03</v>
+      </c>
+      <c r="J52">
+        <v>25.68</v>
+      </c>
+      <c r="K52">
+        <v>25.84</v>
+      </c>
+      <c r="L52">
+        <v>25.42</v>
+      </c>
+      <c r="M52">
+        <v>25.82</v>
+      </c>
+      <c r="N52">
+        <v>26.27</v>
+      </c>
+      <c r="O52">
+        <v>25.88</v>
+      </c>
+      <c r="P52">
+        <v>26.26</v>
+      </c>
+      <c r="Q52">
+        <v>26.11</v>
+      </c>
+      <c r="R52">
+        <v>26.11</v>
+      </c>
+      <c r="S52">
+        <v>25.93</v>
+      </c>
+      <c r="T52">
+        <v>25.51</v>
+      </c>
+      <c r="U52">
+        <v>26.26</v>
+      </c>
+      <c r="V52">
+        <v>25.73</v>
+      </c>
+      <c r="W52">
+        <v>26.13</v>
+      </c>
+      <c r="X52">
+        <v>26.35</v>
+      </c>
+      <c r="Y52">
+        <v>25.73</v>
+      </c>
+      <c r="Z52">
+        <v>26.38</v>
+      </c>
+      <c r="AA52">
+        <f>AVERAGE(B52:Z52)</f>
+        <v>25.909200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="AA53">
+        <f>MAX(AA2:AA52)</f>
+        <v>27.856399999999994</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
